--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1373924.70256399</v>
+        <v>1372473.4843589</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7059063.350932701</v>
+        <v>7059063.350932693</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2153535.29226256</v>
+        <v>2153535.292262557</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8249190.738898822</v>
+        <v>8249190.738898823</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>171.0384665246262</v>
       </c>
       <c r="D2" t="n">
-        <v>186.2478975052123</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -712,13 +712,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -743,10 +743,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>109.54751823811</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>105.4279101615346</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>175.6577756131439</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>61.97863096900525</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1062,19 +1062,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>17.96333547978297</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>251.987706285615</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>172.5850819345349</v>
       </c>
       <c r="F8" t="n">
-        <v>210.2996176963314</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>82.85798684944075</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1353,13 +1353,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1381,16 +1381,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>341.7631921153088</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>20.12287035814009</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>101.8079501246179</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>57.68485424712833</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1609,25 +1609,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>138.8658512360392</v>
       </c>
       <c r="E14" t="n">
-        <v>31.86984345611279</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>127.2624074122409</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>213.9058248758512</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282729</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1864,7 +1864,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I17" t="n">
-        <v>71.94970840543667</v>
+        <v>71.94970840543671</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>125.9259454362165</v>
+        <v>125.9259454362174</v>
       </c>
       <c r="T17" t="n">
         <v>218.4471662669313</v>
@@ -1943,7 +1943,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I18" t="n">
-        <v>14.07197276257016</v>
+        <v>14.07197276257018</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>30.08098237700019</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.4203637486101</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>16.08912696085708</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U19" t="n">
         <v>279.9615737930588</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>125.9259454362183</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T20" t="n">
         <v>218.4471662669313</v>
@@ -2180,7 +2180,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I21" t="n">
-        <v>14.07197276257016</v>
+        <v>14.07197276257018</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.1677744411883</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U22" t="n">
         <v>279.9615737930588</v>
@@ -2338,7 +2338,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I23" t="n">
-        <v>71.94970840543664</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>218.4471662669313</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4617931084883</v>
+        <v>254.4617931084865</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06791994516732643</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>108.2123875306407</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I26" t="n">
-        <v>71.9497084054378</v>
+        <v>71.94970840543731</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>125.9259454362183</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T26" t="n">
         <v>218.4471662669313</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.4203637486101</v>
+        <v>120.0954548125952</v>
       </c>
       <c r="H28" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>70.3753469564591</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I29" t="n">
-        <v>71.94970840543667</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>98.69262609862182</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>207.8997530710447</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282747</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3049,7 +3049,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I32" t="n">
-        <v>71.94970840543667</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>125.9259454362165</v>
+        <v>125.9259454362192</v>
       </c>
       <c r="T32" t="n">
         <v>218.4471662669313</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>67.50669282849464</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26.11890741170598</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U34" t="n">
         <v>279.9615737930588</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282728</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I35" t="n">
-        <v>71.94970840543667</v>
+        <v>71.9497084054391</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>218.4471662669313</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4617931084865</v>
+        <v>254.4617931084866</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3429,19 +3429,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>61.79329353228515</v>
       </c>
       <c r="G37" t="n">
         <v>165.4203637486101</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.33716558595374</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>184.7403640810315</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798634</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3523,7 +3523,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I38" t="n">
-        <v>71.94970840543667</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>125.9259454362165</v>
       </c>
       <c r="T38" t="n">
-        <v>218.4471662669313</v>
+        <v>218.4471662669329</v>
       </c>
       <c r="U38" t="n">
         <v>254.4617931084866</v>
@@ -3602,7 +3602,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I39" t="n">
-        <v>14.07197276257016</v>
+        <v>14.07197276257017</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>156.8709335153885</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.33716558595374</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.4801970412658</v>
+        <v>195.50134612561</v>
       </c>
       <c r="U40" t="n">
         <v>279.9615737930588</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3745,22 +3745,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.2898298336167</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>304.2029779656798</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.94970840543667</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>218.4471662669313</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>136.1628702772543</v>
       </c>
       <c r="V41" t="n">
-        <v>128.6571638356538</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3839,7 +3839,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I42" t="n">
-        <v>14.07197276257016</v>
+        <v>14.07197276257017</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>74.04043550847908</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>186.7038955754354</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,10 +3979,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>68.38979883278562</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,7 +3994,7 @@
         <v>404.2898298336167</v>
       </c>
       <c r="H44" t="n">
-        <v>111.7957382998176</v>
+        <v>304.2029779656798</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T44" t="n">
-        <v>218.4471662669313</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.4617931084866</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4076,7 +4076,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I45" t="n">
-        <v>14.07197276257016</v>
+        <v>14.07197276257017</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>4.921248652459239</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>174.3036873663601</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1162.388731954239</v>
+        <v>333.2842014970884</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.304545307913</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>968.1753559087084</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
         <v>132.8047283792926</v>
@@ -4333,19 +4333,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1569.212905409372</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1168.569507578324</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y2" t="n">
-        <v>1168.569507578324</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="3">
@@ -4391,7 +4391,7 @@
         <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
         <v>349.2108824768026</v>
@@ -4421,10 +4421,10 @@
         <v>690.384199457534</v>
       </c>
       <c r="N3" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>589.4660179844765</v>
+        <v>790.657711466696</v>
       </c>
       <c r="C4" t="n">
-        <v>418.372645546193</v>
+        <v>790.657711466696</v>
       </c>
       <c r="D4" t="n">
-        <v>418.372645546193</v>
+        <v>790.657711466696</v>
       </c>
       <c r="E4" t="n">
-        <v>418.372645546193</v>
+        <v>629.7468963350154</v>
       </c>
       <c r="F4" t="n">
-        <v>418.372645546193</v>
+        <v>465.1157704456067</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>297.8653793711501</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>148.2579241766067</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1331.615243227154</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V4" t="n">
-        <v>1331.615243227154</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.545578736028</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="X4" t="n">
-        <v>814.2017165957118</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="Y4" t="n">
-        <v>589.4660179844765</v>
+        <v>978.3574178607404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.8955794447088</v>
+        <v>1141.815353557804</v>
       </c>
       <c r="C5" t="n">
-        <v>540.8113927983829</v>
+        <v>1135.731166911478</v>
       </c>
       <c r="D5" t="n">
-        <v>540.3878669318475</v>
+        <v>731.2672370045384</v>
       </c>
       <c r="E5" t="n">
-        <v>530.0880554891482</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>513.0980474832398</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>104.369763376072</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>104.369763376072</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>176.0078249962696</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1354.656425951752</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>954.0130281207041</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>553.0763550687942</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.1290119472964</v>
+        <v>799.2174189668733</v>
       </c>
       <c r="C7" t="n">
-        <v>384.0356395090129</v>
+        <v>628.1240465285898</v>
       </c>
       <c r="D7" t="n">
-        <v>224.5409948319229</v>
+        <v>468.6294018514998</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4761,16 +4761,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1316.630945598316</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>1037.56128110719</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>799.2174189668733</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>799.2174189668733</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1083.765153991655</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C8" t="n">
-        <v>1077.680967345329</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D8" t="n">
-        <v>673.2170374383898</v>
+        <v>1132.203910056448</v>
       </c>
       <c r="E8" t="n">
-        <v>258.8768219552865</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,25 +4807,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>1089.945929615741</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X8" t="n">
-        <v>1089.945929615741</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y8" t="n">
-        <v>1089.945929615741</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.4600218411584</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C10" t="n">
-        <v>125.4600218411584</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D10" t="n">
-        <v>125.4600218411584</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E10" t="n">
-        <v>125.4600218411584</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F10" t="n">
-        <v>125.4600218411584</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>862.4253276531883</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>588.5395825927103</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>588.5395825927103</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>350.1957204523937</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y10" t="n">
-        <v>125.4600218411584</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1698.619328384985</v>
+        <v>2031.901671168809</v>
       </c>
       <c r="C11" t="n">
-        <v>1288.494737698255</v>
+        <v>2031.901671168809</v>
       </c>
       <c r="D11" t="n">
-        <v>884.0308077913157</v>
+        <v>1627.437741261869</v>
       </c>
       <c r="E11" t="n">
-        <v>469.6905923082125</v>
+        <v>1213.097525778766</v>
       </c>
       <c r="F11" t="n">
-        <v>469.6905923082125</v>
+        <v>792.0671137324535</v>
       </c>
       <c r="G11" t="n">
-        <v>469.6905923082125</v>
+        <v>383.3388296252857</v>
       </c>
       <c r="H11" t="n">
-        <v>158.7820949359305</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="I11" t="n">
-        <v>72.43033225300364</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="J11" t="n">
-        <v>72.43033225300364</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="K11" t="n">
-        <v>374.0770963056104</v>
+        <v>610.5898333620432</v>
       </c>
       <c r="L11" t="n">
-        <v>1086.668496117848</v>
+        <v>1323.181233174281</v>
       </c>
       <c r="M11" t="n">
-        <v>1862.987087109602</v>
+        <v>2099.499824166035</v>
       </c>
       <c r="N11" t="n">
-        <v>2616.16810374822</v>
+        <v>2852.680840804653</v>
       </c>
       <c r="O11" t="n">
-        <v>3259.798960165325</v>
+        <v>3496.311697221758</v>
       </c>
       <c r="P11" t="n">
-        <v>3259.798960165325</v>
+        <v>3621.516612650184</v>
       </c>
       <c r="Q11" t="n">
-        <v>3580.959966960617</v>
+        <v>3621.516612650184</v>
       </c>
       <c r="R11" t="n">
-        <v>3621.516612650182</v>
+        <v>3621.516612650184</v>
       </c>
       <c r="S11" t="n">
-        <v>3486.235537444283</v>
+        <v>3486.235537444285</v>
       </c>
       <c r="T11" t="n">
-        <v>3486.235537444283</v>
+        <v>3264.029053391144</v>
       </c>
       <c r="U11" t="n">
-        <v>3229.175045703793</v>
+        <v>3264.029053391144</v>
       </c>
       <c r="V11" t="n">
-        <v>2883.959700132774</v>
+        <v>3264.029053391144</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.199399267943</v>
+        <v>3243.702921716255</v>
       </c>
       <c r="X11" t="n">
-        <v>2099.556001436895</v>
+        <v>2843.059523885208</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.619328384985</v>
+        <v>2442.122850833298</v>
       </c>
     </row>
     <row r="12">
@@ -5099,49 +5099,49 @@
         <v>751.2611741395381</v>
       </c>
       <c r="C12" t="n">
-        <v>617.2661028884837</v>
+        <v>617.2661028884838</v>
       </c>
       <c r="D12" t="n">
-        <v>500.3689451078761</v>
+        <v>500.3689451078762</v>
       </c>
       <c r="E12" t="n">
-        <v>379.8761291002041</v>
+        <v>379.8761291002043</v>
       </c>
       <c r="F12" t="n">
-        <v>270.9162492827087</v>
+        <v>270.9162492827088</v>
       </c>
       <c r="G12" t="n">
-        <v>163.9261365970474</v>
+        <v>163.9261365970475</v>
       </c>
       <c r="H12" t="n">
-        <v>93.17892363276347</v>
+        <v>93.17892363276353</v>
       </c>
       <c r="I12" t="n">
-        <v>72.43033225300364</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="J12" t="n">
-        <v>265.2431898156369</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="K12" t="n">
-        <v>721.0494460809356</v>
+        <v>528.2365885183024</v>
       </c>
       <c r="L12" t="n">
-        <v>721.0494460809356</v>
+        <v>528.2365885183024</v>
       </c>
       <c r="M12" t="n">
-        <v>721.0494460809356</v>
+        <v>528.2365885183024</v>
       </c>
       <c r="N12" t="n">
-        <v>1414.962437557609</v>
+        <v>528.2365885183024</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.919528103504</v>
+        <v>1177.80965156836</v>
       </c>
       <c r="P12" t="n">
-        <v>2118.919528103504</v>
+        <v>1739.51554405689</v>
       </c>
       <c r="Q12" t="n">
-        <v>2118.919528103504</v>
+        <v>2089.360008740874</v>
       </c>
       <c r="R12" t="n">
         <v>2118.919528103504</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>301.791234233841</v>
+        <v>239.6807233274603</v>
       </c>
       <c r="C13" t="n">
-        <v>130.6978617955575</v>
+        <v>239.6807233274603</v>
       </c>
       <c r="D13" t="n">
-        <v>130.6978617955575</v>
+        <v>239.6807233274603</v>
       </c>
       <c r="E13" t="n">
-        <v>130.6978617955575</v>
+        <v>239.6807233274603</v>
       </c>
       <c r="F13" t="n">
-        <v>72.43033225300364</v>
+        <v>239.6807233274603</v>
       </c>
       <c r="G13" t="n">
-        <v>72.43033225300364</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="H13" t="n">
-        <v>72.43033225300364</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="I13" t="n">
-        <v>72.43033225300364</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="J13" t="n">
-        <v>86.51288165821416</v>
+        <v>86.51288165821421</v>
       </c>
       <c r="K13" t="n">
-        <v>241.0652093804521</v>
+        <v>241.0652093804522</v>
       </c>
       <c r="L13" t="n">
         <v>500.9623096605127</v>
       </c>
       <c r="M13" t="n">
-        <v>790.226366101006</v>
+        <v>790.2263661010061</v>
       </c>
       <c r="N13" t="n">
         <v>1071.065148495256</v>
@@ -5238,13 +5238,13 @@
         <v>805.596597336202</v>
       </c>
       <c r="W13" t="n">
-        <v>526.5269328450763</v>
+        <v>805.596597336202</v>
       </c>
       <c r="X13" t="n">
-        <v>526.5269328450763</v>
+        <v>567.2527351958854</v>
       </c>
       <c r="Y13" t="n">
-        <v>301.791234233841</v>
+        <v>342.5170365846501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2059.877807439216</v>
+        <v>1445.329756439688</v>
       </c>
       <c r="C14" t="n">
-        <v>1649.753216752486</v>
+        <v>1445.329756439688</v>
       </c>
       <c r="D14" t="n">
-        <v>1245.289286845546</v>
+        <v>1305.061219837628</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.097525778766</v>
+        <v>890.721004354525</v>
       </c>
       <c r="F14" t="n">
-        <v>792.0671137324534</v>
+        <v>469.6905923082126</v>
       </c>
       <c r="G14" t="n">
-        <v>383.3388296252857</v>
+        <v>469.6905923082126</v>
       </c>
       <c r="H14" t="n">
-        <v>72.43033225300364</v>
+        <v>158.7820949359306</v>
       </c>
       <c r="I14" t="n">
-        <v>72.43033225300364</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="J14" t="n">
-        <v>72.43033225300364</v>
+        <v>326.615803720758</v>
       </c>
       <c r="K14" t="n">
-        <v>166.0814051817507</v>
+        <v>695.2381031009047</v>
       </c>
       <c r="L14" t="n">
-        <v>878.6728049939887</v>
+        <v>1407.829502913143</v>
       </c>
       <c r="M14" t="n">
-        <v>1654.991395985743</v>
+        <v>2184.148093904897</v>
       </c>
       <c r="N14" t="n">
-        <v>2408.172412624361</v>
+        <v>2937.329110543515</v>
       </c>
       <c r="O14" t="n">
-        <v>3051.803269041466</v>
+        <v>3580.95996696062</v>
       </c>
       <c r="P14" t="n">
-        <v>3580.959966960617</v>
+        <v>3580.95996696062</v>
       </c>
       <c r="Q14" t="n">
-        <v>3580.959966960617</v>
+        <v>3580.95996696062</v>
       </c>
       <c r="R14" t="n">
-        <v>3621.516612650182</v>
+        <v>3621.516612650184</v>
       </c>
       <c r="S14" t="n">
-        <v>3621.516612650182</v>
+        <v>3486.235537444285</v>
       </c>
       <c r="T14" t="n">
-        <v>3621.516612650182</v>
+        <v>3264.029053391144</v>
       </c>
       <c r="U14" t="n">
-        <v>3621.516612650182</v>
+        <v>3006.968561650654</v>
       </c>
       <c r="V14" t="n">
-        <v>3271.679057986663</v>
+        <v>2657.131006987135</v>
       </c>
       <c r="W14" t="n">
-        <v>3271.679057986663</v>
+        <v>2657.131006987135</v>
       </c>
       <c r="X14" t="n">
-        <v>2871.035660155615</v>
+        <v>2256.487609156088</v>
       </c>
       <c r="Y14" t="n">
-        <v>2470.098987103705</v>
+        <v>1855.550936104178</v>
       </c>
     </row>
     <row r="15">
@@ -5336,49 +5336,49 @@
         <v>751.2611741395381</v>
       </c>
       <c r="C15" t="n">
-        <v>617.2661028884837</v>
+        <v>617.2661028884838</v>
       </c>
       <c r="D15" t="n">
-        <v>500.3689451078761</v>
+        <v>500.3689451078762</v>
       </c>
       <c r="E15" t="n">
-        <v>379.8761291002041</v>
+        <v>379.8761291002043</v>
       </c>
       <c r="F15" t="n">
-        <v>270.9162492827087</v>
+        <v>270.9162492827088</v>
       </c>
       <c r="G15" t="n">
-        <v>163.9261365970474</v>
+        <v>163.9261365970475</v>
       </c>
       <c r="H15" t="n">
-        <v>93.17892363276347</v>
+        <v>93.17892363276353</v>
       </c>
       <c r="I15" t="n">
-        <v>72.43033225300364</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="J15" t="n">
-        <v>72.43033225300364</v>
+        <v>265.2431898156369</v>
       </c>
       <c r="K15" t="n">
-        <v>72.43033225300364</v>
+        <v>721.0494460809357</v>
       </c>
       <c r="L15" t="n">
-        <v>733.5185041722918</v>
+        <v>1382.137618000224</v>
       </c>
       <c r="M15" t="n">
-        <v>733.5185041722918</v>
+        <v>1739.51554405689</v>
       </c>
       <c r="N15" t="n">
-        <v>1607.17659628391</v>
+        <v>1739.51554405689</v>
       </c>
       <c r="O15" t="n">
-        <v>1607.17659628391</v>
+        <v>1739.51554405689</v>
       </c>
       <c r="P15" t="n">
-        <v>2118.919528103504</v>
+        <v>1739.51554405689</v>
       </c>
       <c r="Q15" t="n">
-        <v>2118.919528103504</v>
+        <v>2089.360008740874</v>
       </c>
       <c r="R15" t="n">
         <v>2118.919528103504</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>353.4075040380862</v>
+        <v>864.8639230618238</v>
       </c>
       <c r="C16" t="n">
-        <v>353.4075040380862</v>
+        <v>693.7705506235403</v>
       </c>
       <c r="D16" t="n">
-        <v>353.4075040380862</v>
+        <v>565.2226643485495</v>
       </c>
       <c r="E16" t="n">
-        <v>353.4075040380862</v>
+        <v>404.311849216869</v>
       </c>
       <c r="F16" t="n">
-        <v>188.7763781486775</v>
+        <v>239.6807233274603</v>
       </c>
       <c r="G16" t="n">
-        <v>188.7763781486775</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="H16" t="n">
-        <v>188.7763781486775</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="I16" t="n">
-        <v>72.43033225300364</v>
+        <v>72.4303322530037</v>
       </c>
       <c r="J16" t="n">
-        <v>86.51288165821416</v>
+        <v>86.51288165821421</v>
       </c>
       <c r="K16" t="n">
-        <v>241.0652093804521</v>
+        <v>241.0652093804522</v>
       </c>
       <c r="L16" t="n">
         <v>500.9623096605127</v>
       </c>
       <c r="M16" t="n">
-        <v>790.226366101006</v>
+        <v>790.2263661010061</v>
       </c>
       <c r="N16" t="n">
         <v>1071.065148495256</v>
@@ -5460,28 +5460,28 @@
         <v>1601.829228873854</v>
       </c>
       <c r="R16" t="n">
-        <v>1516.556510549253</v>
+        <v>1601.829228873854</v>
       </c>
       <c r="S16" t="n">
-        <v>1330.164742429164</v>
+        <v>1601.829228873854</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.616003405866</v>
+        <v>1601.829228873854</v>
       </c>
       <c r="U16" t="n">
-        <v>807.8178559519899</v>
+        <v>1601.829228873854</v>
       </c>
       <c r="V16" t="n">
-        <v>807.8178559519899</v>
+        <v>1327.943483813376</v>
       </c>
       <c r="W16" t="n">
-        <v>591.7513661784028</v>
+        <v>1327.943483813376</v>
       </c>
       <c r="X16" t="n">
-        <v>353.4075040380862</v>
+        <v>1089.599621673059</v>
       </c>
       <c r="Y16" t="n">
-        <v>353.4075040380862</v>
+        <v>864.8639230618238</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C17" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D17" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E17" t="n">
         <v>1311.163691508386</v>
@@ -5509,25 +5509,25 @@
         <v>481.7597139735719</v>
       </c>
       <c r="H17" t="n">
-        <v>174.4839786547033</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I17" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J17" t="n">
-        <v>385.5001609893749</v>
+        <v>385.5001609893748</v>
       </c>
       <c r="K17" t="n">
-        <v>967.8832819716196</v>
+        <v>967.8832819716192</v>
       </c>
       <c r="L17" t="n">
         <v>1735.337992756536</v>
       </c>
       <c r="M17" t="n">
-        <v>2572.7025882337</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N17" t="n">
-        <v>3387.917397531934</v>
+        <v>3387.917397531933</v>
       </c>
       <c r="O17" t="n">
         <v>4090.125005286255</v>
@@ -5536,31 +5536,31 @@
         <v>4669.275605250682</v>
       </c>
       <c r="Q17" t="n">
-        <v>5027.979950434839</v>
+        <v>5027.979950434838</v>
       </c>
       <c r="R17" t="n">
-        <v>5090.375275894931</v>
+        <v>5090.37527589493</v>
       </c>
       <c r="S17" t="n">
-        <v>4963.177351211884</v>
+        <v>4963.177351211883</v>
       </c>
       <c r="T17" t="n">
-        <v>4742.523647911954</v>
+        <v>4742.523647911952</v>
       </c>
       <c r="U17" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V17" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997437</v>
       </c>
       <c r="W17" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X17" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y17" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249648</v>
       </c>
     </row>
     <row r="18">
@@ -5597,16 +5597,16 @@
         <v>101.8075055178986</v>
       </c>
       <c r="K18" t="n">
-        <v>587.6509997645194</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="L18" t="n">
-        <v>789.9955727865236</v>
+        <v>803.2844507284746</v>
       </c>
       <c r="M18" t="n">
-        <v>789.9955727865236</v>
+        <v>1538.210208726469</v>
       </c>
       <c r="N18" t="n">
-        <v>789.9955727865236</v>
+        <v>1538.210208726469</v>
       </c>
       <c r="O18" t="n">
         <v>1538.210208726469</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>299.2836127154848</v>
+        <v>285.1504254264513</v>
       </c>
       <c r="C19" t="n">
-        <v>299.2836127154848</v>
+        <v>285.1504254264513</v>
       </c>
       <c r="D19" t="n">
-        <v>268.8987820316462</v>
+        <v>285.1504254264513</v>
       </c>
       <c r="E19" t="n">
-        <v>268.8987820316462</v>
+        <v>285.1504254264513</v>
       </c>
       <c r="F19" t="n">
-        <v>268.8987820316462</v>
+        <v>285.1504254264513</v>
       </c>
       <c r="G19" t="n">
-        <v>101.8075055178986</v>
+        <v>118.0591489127037</v>
       </c>
       <c r="H19" t="n">
         <v>101.8075055178986</v>
@@ -5676,13 +5676,13 @@
         <v>126.9155913163374</v>
       </c>
       <c r="K19" t="n">
-        <v>299.5862622435975</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L19" t="n">
-        <v>582.6686038988485</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M19" t="n">
-        <v>896.3782465587624</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N19" t="n">
         <v>1201.081353770707</v>
@@ -5703,22 +5703,22 @@
         <v>1785.807757890522</v>
       </c>
       <c r="T19" t="n">
-        <v>1785.807757890522</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U19" t="n">
-        <v>1503.018289412685</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V19" t="n">
-        <v>1229.132544352207</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W19" t="n">
-        <v>950.062879861081</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X19" t="n">
-        <v>711.7190177207644</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y19" t="n">
-        <v>486.9833191095291</v>
+        <v>472.8501318204957</v>
       </c>
     </row>
     <row r="20">
@@ -5752,13 +5752,13 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J20" t="n">
-        <v>385.5001609893748</v>
+        <v>385.5001609893746</v>
       </c>
       <c r="K20" t="n">
-        <v>967.883281971619</v>
+        <v>967.8832819716192</v>
       </c>
       <c r="L20" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M20" t="n">
         <v>2572.702588233699</v>
@@ -5773,10 +5773,10 @@
         <v>4669.275605250682</v>
       </c>
       <c r="Q20" t="n">
-        <v>5027.979950434839</v>
+        <v>5027.979950434838</v>
       </c>
       <c r="R20" t="n">
-        <v>5090.375275894931</v>
+        <v>5090.37527589493</v>
       </c>
       <c r="S20" t="n">
         <v>4963.177351211883</v>
@@ -5825,34 +5825,34 @@
         <v>184.9358490198273</v>
       </c>
       <c r="H21" t="n">
-        <v>116.0216194194847</v>
+        <v>116.0216194194846</v>
       </c>
       <c r="I21" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J21" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287013</v>
       </c>
       <c r="K21" t="n">
-        <v>587.6509997645194</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L21" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="M21" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="N21" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O21" t="n">
-        <v>2037.342580915041</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P21" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q21" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R21" t="n">
         <v>2135.43668320785</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>361.5613247244904</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C22" t="n">
-        <v>361.5613247244904</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D22" t="n">
-        <v>361.5613247244904</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E22" t="n">
-        <v>361.5613247244904</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F22" t="n">
-        <v>361.5613247244904</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G22" t="n">
-        <v>361.5613247244904</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H22" t="n">
-        <v>213.3685426242508</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I22" t="n">
         <v>101.8075055178986</v>
@@ -5913,13 +5913,13 @@
         <v>126.9155913163374</v>
       </c>
       <c r="K22" t="n">
-        <v>299.5862622435975</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L22" t="n">
-        <v>582.6686038988485</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M22" t="n">
-        <v>896.3782465587624</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N22" t="n">
         <v>1201.081353770707</v>
@@ -5940,22 +5940,22 @@
         <v>1785.807757890522</v>
       </c>
       <c r="T22" t="n">
-        <v>1785.807757890522</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U22" t="n">
-        <v>1503.018289412685</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V22" t="n">
-        <v>1229.132544352207</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W22" t="n">
-        <v>950.062879861081</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X22" t="n">
-        <v>711.7190177207644</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y22" t="n">
-        <v>486.9833191095291</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>481.7597139735719</v>
       </c>
       <c r="H23" t="n">
-        <v>174.4839786547033</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I23" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J23" t="n">
-        <v>385.5001609893748</v>
+        <v>385.5001609893749</v>
       </c>
       <c r="K23" t="n">
-        <v>967.8832819716196</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L23" t="n">
         <v>1735.337992756536</v>
@@ -6022,16 +6022,16 @@
         <v>4742.523647911954</v>
       </c>
       <c r="U23" t="n">
-        <v>4485.491533660956</v>
+        <v>4485.491533660957</v>
       </c>
       <c r="V23" t="n">
-        <v>4135.653978997437</v>
+        <v>4135.653978997438</v>
       </c>
       <c r="W23" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X23" t="n">
-        <v>3351.250280301558</v>
+        <v>3351.250280301559</v>
       </c>
       <c r="Y23" t="n">
         <v>2950.313607249648</v>
@@ -6059,7 +6059,7 @@
         <v>291.736170512492</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9358490198273</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H24" t="n">
         <v>116.0216194194847</v>
@@ -6077,10 +6077,10 @@
         <v>101.8075055178986</v>
       </c>
       <c r="M24" t="n">
-        <v>465.1847234140369</v>
+        <v>991.9163796280335</v>
       </c>
       <c r="N24" t="n">
-        <v>1387.222047267905</v>
+        <v>1913.953703481901</v>
       </c>
       <c r="O24" t="n">
         <v>2135.43668320785</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.0730811933219</v>
+        <v>211.1129474680408</v>
       </c>
       <c r="C25" t="n">
-        <v>410.9797087550384</v>
+        <v>211.1129474680408</v>
       </c>
       <c r="D25" t="n">
-        <v>410.9797087550384</v>
+        <v>211.1129474680408</v>
       </c>
       <c r="E25" t="n">
-        <v>250.0688936233578</v>
+        <v>211.1129474680408</v>
       </c>
       <c r="F25" t="n">
-        <v>250.0002876181383</v>
+        <v>211.1129474680408</v>
       </c>
       <c r="G25" t="n">
-        <v>250.0002876181383</v>
+        <v>211.1129474680408</v>
       </c>
       <c r="H25" t="n">
-        <v>101.8075055178986</v>
+        <v>211.1129474680408</v>
       </c>
       <c r="I25" t="n">
         <v>101.8075055178986</v>
@@ -6153,10 +6153,10 @@
         <v>299.5862622435975</v>
       </c>
       <c r="L25" t="n">
-        <v>582.6686038988485</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M25" t="n">
-        <v>896.3782465587624</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N25" t="n">
         <v>1201.081353770707</v>
@@ -6171,28 +6171,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R25" t="n">
-        <v>1785.807757890522</v>
+        <v>1707.689408813801</v>
       </c>
       <c r="S25" t="n">
-        <v>1785.807757890522</v>
+        <v>1524.070573538067</v>
       </c>
       <c r="T25" t="n">
-        <v>1785.807757890522</v>
+        <v>1285.201687637798</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.807757890522</v>
+        <v>1002.412219159961</v>
       </c>
       <c r="V25" t="n">
-        <v>1511.922012830044</v>
+        <v>728.526474099483</v>
       </c>
       <c r="W25" t="n">
-        <v>1232.852348338918</v>
+        <v>449.4568096083574</v>
       </c>
       <c r="X25" t="n">
-        <v>994.5084861986015</v>
+        <v>211.1129474680408</v>
       </c>
       <c r="Y25" t="n">
-        <v>769.7727875873662</v>
+        <v>211.1129474680408</v>
       </c>
     </row>
     <row r="26">
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.09242758516</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C26" t="n">
         <v>2129.96783689843</v>
       </c>
       <c r="D26" t="n">
-        <v>1725.503906991491</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E26" t="n">
         <v>1311.163691508387</v>
       </c>
       <c r="F26" t="n">
-        <v>890.1332794620748</v>
+        <v>890.1332794620744</v>
       </c>
       <c r="G26" t="n">
-        <v>481.7597139735731</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H26" t="n">
-        <v>174.4839786547045</v>
+        <v>174.483978654704</v>
       </c>
       <c r="I26" t="n">
-        <v>101.8075055178987</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J26" t="n">
-        <v>385.5001609893761</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K26" t="n">
-        <v>967.8832819716204</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L26" t="n">
-        <v>1735.337992756537</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M26" t="n">
-        <v>2572.702588233701</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N26" t="n">
-        <v>3387.917397531935</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O26" t="n">
-        <v>4090.125005286257</v>
+        <v>4090.125005286256</v>
       </c>
       <c r="P26" t="n">
-        <v>4669.275605250684</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q26" t="n">
-        <v>5027.979950434841</v>
+        <v>5027.979950434839</v>
       </c>
       <c r="R26" t="n">
-        <v>5090.375275894933</v>
+        <v>5090.375275894931</v>
       </c>
       <c r="S26" t="n">
         <v>4963.177351211884</v>
@@ -6265,7 +6265,7 @@
         <v>4135.653978997438</v>
       </c>
       <c r="W26" t="n">
-        <v>3751.893678132607</v>
+        <v>3751.893678132606</v>
       </c>
       <c r="X26" t="n">
         <v>3351.250280301559</v>
@@ -6302,22 +6302,22 @@
         <v>116.0216194194847</v>
       </c>
       <c r="I27" t="n">
-        <v>101.8075055178987</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J27" t="n">
-        <v>101.8075055178987</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K27" t="n">
-        <v>101.8075055178987</v>
+        <v>543.850863887139</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8075055178987</v>
+        <v>1245.327809097715</v>
       </c>
       <c r="M27" t="n">
-        <v>465.1847234140369</v>
+        <v>2135.43668320785</v>
       </c>
       <c r="N27" t="n">
-        <v>1387.222047267905</v>
+        <v>2135.43668320785</v>
       </c>
       <c r="O27" t="n">
         <v>2135.43668320785</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1013.689186936417</v>
+        <v>394.2094181709248</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.689186936417</v>
+        <v>223.1160457326413</v>
       </c>
       <c r="D28" t="n">
-        <v>854.1945422593274</v>
+        <v>223.1160457326413</v>
       </c>
       <c r="E28" t="n">
-        <v>693.2837271276468</v>
+        <v>223.1160457326413</v>
       </c>
       <c r="F28" t="n">
-        <v>528.652601238238</v>
+        <v>223.1160457326413</v>
       </c>
       <c r="G28" t="n">
-        <v>361.5613247244905</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H28" t="n">
-        <v>213.3685426242508</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I28" t="n">
-        <v>101.8075055178987</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J28" t="n">
         <v>126.9155913163374</v>
@@ -6390,10 +6390,10 @@
         <v>299.5862622435975</v>
       </c>
       <c r="L28" t="n">
-        <v>582.6686038988485</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M28" t="n">
-        <v>896.3782465587624</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N28" t="n">
         <v>1201.081353770707</v>
@@ -6408,28 +6408,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R28" t="n">
-        <v>1714.721548843593</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S28" t="n">
-        <v>1531.10271356786</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="T28" t="n">
-        <v>1531.10271356786</v>
+        <v>1363.32003671452</v>
       </c>
       <c r="U28" t="n">
-        <v>1531.10271356786</v>
+        <v>1080.530568236682</v>
       </c>
       <c r="V28" t="n">
-        <v>1531.10271356786</v>
+        <v>806.6448231762045</v>
       </c>
       <c r="W28" t="n">
-        <v>1252.033049076734</v>
+        <v>806.6448231762045</v>
       </c>
       <c r="X28" t="n">
-        <v>1013.689186936417</v>
+        <v>806.6448231762045</v>
       </c>
       <c r="Y28" t="n">
-        <v>1013.689186936417</v>
+        <v>581.9091245649691</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>481.7597139735719</v>
       </c>
       <c r="H29" t="n">
-        <v>174.4839786547033</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I29" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J29" t="n">
-        <v>385.5001609893749</v>
+        <v>385.5001609893748</v>
       </c>
       <c r="K29" t="n">
-        <v>967.8832819716196</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L29" t="n">
         <v>1735.337992756536</v>
@@ -6533,7 +6533,7 @@
         <v>291.736170512492</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9358490198273</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H30" t="n">
         <v>116.0216194194847</v>
@@ -6542,25 +6542,25 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J30" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K30" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8075055178986</v>
+        <v>1499.515079185898</v>
       </c>
       <c r="M30" t="n">
-        <v>789.9955727865236</v>
+        <v>1499.515079185898</v>
       </c>
       <c r="N30" t="n">
-        <v>789.9955727865236</v>
+        <v>1499.515079185898</v>
       </c>
       <c r="O30" t="n">
-        <v>1538.210208726469</v>
+        <v>1499.515079185898</v>
       </c>
       <c r="P30" t="n">
-        <v>2135.43668320785</v>
+        <v>2096.741553667279</v>
       </c>
       <c r="Q30" t="n">
         <v>2135.43668320785</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>925.0287401681089</v>
+        <v>865.2236168027581</v>
       </c>
       <c r="C31" t="n">
-        <v>753.9353677298254</v>
+        <v>694.1302443644746</v>
       </c>
       <c r="D31" t="n">
         <v>594.4407230527354</v>
@@ -6627,46 +6627,46 @@
         <v>299.5862622435975</v>
       </c>
       <c r="L31" t="n">
-        <v>582.6686038988485</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M31" t="n">
-        <v>896.3782465587624</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N31" t="n">
-        <v>1201.081353770704</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O31" t="n">
-        <v>1482.684530619219</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P31" t="n">
-        <v>1707.221194499474</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q31" t="n">
-        <v>1785.807757890518</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R31" t="n">
-        <v>1785.807757890518</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S31" t="n">
-        <v>1785.807757890518</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="T31" t="n">
-        <v>1785.807757890518</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.807757890518</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="V31" t="n">
-        <v>1785.807757890518</v>
+        <v>1328.30317755431</v>
       </c>
       <c r="W31" t="n">
-        <v>1575.808007313705</v>
+        <v>1328.30317755431</v>
       </c>
       <c r="X31" t="n">
-        <v>1337.464145173389</v>
+        <v>1089.959315413993</v>
       </c>
       <c r="Y31" t="n">
-        <v>1112.728446562153</v>
+        <v>865.2236168027581</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.092427585161</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C32" t="n">
-        <v>2129.967836898431</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D32" t="n">
-        <v>1725.503906991492</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E32" t="n">
         <v>1311.163691508386</v>
@@ -6697,55 +6697,55 @@
         <v>174.4839786547034</v>
       </c>
       <c r="I32" t="n">
-        <v>101.8075055178987</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J32" t="n">
-        <v>385.5001609893761</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K32" t="n">
-        <v>967.8832819716204</v>
+        <v>967.8832819716199</v>
       </c>
       <c r="L32" t="n">
         <v>1735.337992756537</v>
       </c>
       <c r="M32" t="n">
-        <v>2572.702588233701</v>
+        <v>2572.7025882337</v>
       </c>
       <c r="N32" t="n">
         <v>3387.917397531935</v>
       </c>
       <c r="O32" t="n">
-        <v>4090.125005286257</v>
+        <v>4090.125005286256</v>
       </c>
       <c r="P32" t="n">
-        <v>4669.275605250684</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q32" t="n">
-        <v>5027.979950434841</v>
+        <v>5027.97995043484</v>
       </c>
       <c r="R32" t="n">
-        <v>5090.375275894933</v>
+        <v>5090.375275894932</v>
       </c>
       <c r="S32" t="n">
-        <v>4963.177351211886</v>
+        <v>4963.177351211883</v>
       </c>
       <c r="T32" t="n">
-        <v>4742.523647911956</v>
+        <v>4742.523647911952</v>
       </c>
       <c r="U32" t="n">
-        <v>4485.491533660959</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V32" t="n">
-        <v>4135.653978997439</v>
+        <v>4135.653978997437</v>
       </c>
       <c r="W32" t="n">
-        <v>3751.893678132608</v>
+        <v>3751.893678132606</v>
       </c>
       <c r="X32" t="n">
-        <v>3351.25028030156</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y32" t="n">
-        <v>2950.31360724965</v>
+        <v>2950.313607249648</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>116.0216194194847</v>
       </c>
       <c r="I33" t="n">
-        <v>101.8075055178987</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J33" t="n">
-        <v>101.8075055178987</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K33" t="n">
-        <v>101.8075055178987</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="L33" t="n">
-        <v>803.2844507284748</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="M33" t="n">
-        <v>1693.39332483861</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="N33" t="n">
-        <v>2135.43668320785</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="O33" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P33" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q33" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R33" t="n">
         <v>2135.43668320785</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>299.2836127154811</v>
+        <v>169.9960841325397</v>
       </c>
       <c r="C34" t="n">
-        <v>128.1902402771976</v>
+        <v>169.9960841325397</v>
       </c>
       <c r="D34" t="n">
-        <v>128.1902402771976</v>
+        <v>169.9960841325397</v>
       </c>
       <c r="E34" t="n">
-        <v>128.1902402771976</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F34" t="n">
-        <v>128.1902402771976</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G34" t="n">
-        <v>101.8075055178987</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H34" t="n">
-        <v>101.8075055178987</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I34" t="n">
-        <v>101.8075055178987</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J34" t="n">
         <v>126.9155913163374</v>
@@ -6864,46 +6864,46 @@
         <v>299.5862622435975</v>
       </c>
       <c r="L34" t="n">
-        <v>582.6686038988485</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M34" t="n">
-        <v>896.3782465587624</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N34" t="n">
-        <v>1201.081353770704</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O34" t="n">
-        <v>1482.684530619219</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P34" t="n">
-        <v>1707.221194499474</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q34" t="n">
-        <v>1785.807757890518</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R34" t="n">
-        <v>1785.807757890518</v>
+        <v>1707.689408813801</v>
       </c>
       <c r="S34" t="n">
-        <v>1785.807757890518</v>
+        <v>1707.689408813801</v>
       </c>
       <c r="T34" t="n">
-        <v>1785.807757890518</v>
+        <v>1468.820522913532</v>
       </c>
       <c r="U34" t="n">
-        <v>1503.018289412681</v>
+        <v>1186.031054435695</v>
       </c>
       <c r="V34" t="n">
-        <v>1229.132544352203</v>
+        <v>912.1453093752173</v>
       </c>
       <c r="W34" t="n">
-        <v>950.0628798610774</v>
+        <v>633.0756448840916</v>
       </c>
       <c r="X34" t="n">
-        <v>711.7190177207608</v>
+        <v>394.731782743775</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.9833191095255</v>
+        <v>169.9960841325397</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585161</v>
       </c>
       <c r="C35" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898431</v>
       </c>
       <c r="D35" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991492</v>
       </c>
       <c r="E35" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508389</v>
       </c>
       <c r="F35" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620762</v>
       </c>
       <c r="G35" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735744</v>
       </c>
       <c r="H35" t="n">
-        <v>174.4839786547033</v>
+        <v>174.4839786547058</v>
       </c>
       <c r="I35" t="n">
         <v>101.8075055178986</v>
@@ -6943,46 +6943,46 @@
         <v>967.8832819716199</v>
       </c>
       <c r="L35" t="n">
-        <v>1735.337992756536</v>
+        <v>1735.337992756537</v>
       </c>
       <c r="M35" t="n">
-        <v>2572.702588233699</v>
+        <v>2572.7025882337</v>
       </c>
       <c r="N35" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531935</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.125005286255</v>
+        <v>4090.125005286256</v>
       </c>
       <c r="P35" t="n">
-        <v>4669.275605250682</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q35" t="n">
-        <v>5027.979950434839</v>
+        <v>5027.97995043484</v>
       </c>
       <c r="R35" t="n">
-        <v>5090.375275894931</v>
+        <v>5090.375275894932</v>
       </c>
       <c r="S35" t="n">
-        <v>4963.177351211884</v>
+        <v>4963.177351211885</v>
       </c>
       <c r="T35" t="n">
-        <v>4742.523647911954</v>
+        <v>4742.523647911955</v>
       </c>
       <c r="U35" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660958</v>
       </c>
       <c r="V35" t="n">
         <v>4135.653978997439</v>
       </c>
       <c r="W35" t="n">
-        <v>3751.893678132607</v>
+        <v>3751.893678132608</v>
       </c>
       <c r="X35" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.25028030156</v>
       </c>
       <c r="Y35" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.31360724965</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>291.736170512492</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9358490198273</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H36" t="n">
         <v>116.0216194194847</v>
@@ -7016,25 +7016,25 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J36" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K36" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8075055178986</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="M36" t="n">
-        <v>991.9163796280335</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="N36" t="n">
-        <v>1913.953703481901</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="O36" t="n">
-        <v>2135.43668320785</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="P36" t="n">
-        <v>2135.43668320785</v>
+        <v>1761.847650139468</v>
       </c>
       <c r="Q36" t="n">
         <v>2135.43668320785</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>925.0287401681089</v>
+        <v>811.5132199162794</v>
       </c>
       <c r="C37" t="n">
-        <v>753.9353677298254</v>
+        <v>640.4198474779959</v>
       </c>
       <c r="D37" t="n">
-        <v>594.4407230527354</v>
+        <v>640.4198474779959</v>
       </c>
       <c r="E37" t="n">
-        <v>433.5299079210549</v>
+        <v>479.5090323463153</v>
       </c>
       <c r="F37" t="n">
-        <v>268.8987820316462</v>
+        <v>417.0915641318859</v>
       </c>
       <c r="G37" t="n">
-        <v>101.8075055178986</v>
+        <v>250.0002876181383</v>
       </c>
       <c r="H37" t="n">
         <v>101.8075055178986</v>
@@ -7101,10 +7101,10 @@
         <v>299.5862622435975</v>
       </c>
       <c r="L37" t="n">
-        <v>582.6686038988485</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M37" t="n">
-        <v>896.3782465587624</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N37" t="n">
         <v>1201.081353770707</v>
@@ -7119,28 +7119,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R37" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.070573538067</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T37" t="n">
-        <v>1524.070573538067</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="U37" t="n">
-        <v>1524.070573538067</v>
+        <v>1503.018289412685</v>
       </c>
       <c r="V37" t="n">
-        <v>1524.070573538067</v>
+        <v>1503.018289412685</v>
       </c>
       <c r="W37" t="n">
-        <v>1524.070573538067</v>
+        <v>1223.948624921559</v>
       </c>
       <c r="X37" t="n">
-        <v>1337.464145173389</v>
+        <v>1223.948624921559</v>
       </c>
       <c r="Y37" t="n">
-        <v>1112.728446562153</v>
+        <v>999.2129263103237</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C38" t="n">
         <v>2129.967836898429</v>
@@ -7168,31 +7168,31 @@
         <v>481.7597139735719</v>
       </c>
       <c r="H38" t="n">
-        <v>174.4839786547033</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I38" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J38" t="n">
-        <v>385.5001609893744</v>
+        <v>385.5001609893749</v>
       </c>
       <c r="K38" t="n">
-        <v>967.883281971619</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L38" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M38" t="n">
         <v>2572.702588233699</v>
       </c>
       <c r="N38" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O38" t="n">
         <v>4090.125005286255</v>
       </c>
       <c r="P38" t="n">
-        <v>4669.275605250682</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q38" t="n">
         <v>5027.979950434839</v>
@@ -7204,22 +7204,22 @@
         <v>4963.177351211884</v>
       </c>
       <c r="T38" t="n">
-        <v>4742.523647911954</v>
+        <v>4742.523647911952</v>
       </c>
       <c r="U38" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V38" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997437</v>
       </c>
       <c r="W38" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X38" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y38" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249648</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>291.736170512492</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9358490198273</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H39" t="n">
         <v>116.0216194194847</v>
@@ -7253,28 +7253,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J39" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K39" t="n">
-        <v>101.8075055178986</v>
+        <v>798.038133975322</v>
       </c>
       <c r="L39" t="n">
-        <v>101.8075055178986</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="M39" t="n">
-        <v>991.9163796280335</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="N39" t="n">
-        <v>1913.953703481901</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P39" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q39" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R39" t="n">
         <v>2135.43668320785</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3564.830511921693</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C40" t="n">
-        <v>3564.830511921693</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D40" t="n">
-        <v>3406.375023522311</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E40" t="n">
-        <v>3406.375023522311</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F40" t="n">
-        <v>3406.375023522311</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G40" t="n">
-        <v>3406.375023522311</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H40" t="n">
-        <v>3406.375023522311</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I40" t="n">
-        <v>3406.375023522311</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J40" t="n">
-        <v>3431.483109320749</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K40" t="n">
-        <v>3604.15378024801</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L40" t="n">
-        <v>3887.23612190326</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M40" t="n">
-        <v>4200.945764563175</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N40" t="n">
-        <v>4505.64887177512</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O40" t="n">
-        <v>4787.252048623632</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P40" t="n">
-        <v>5011.788712503887</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q40" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R40" t="n">
-        <v>5012.256926818211</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S40" t="n">
-        <v>4828.638091542477</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T40" t="n">
-        <v>4589.769205642208</v>
+        <v>1588.331650692936</v>
       </c>
       <c r="U40" t="n">
-        <v>4306.979737164371</v>
+        <v>1305.542182215099</v>
       </c>
       <c r="V40" t="n">
-        <v>4306.979737164371</v>
+        <v>1031.656437154621</v>
       </c>
       <c r="W40" t="n">
-        <v>4027.910072673245</v>
+        <v>752.5867726634949</v>
       </c>
       <c r="X40" t="n">
-        <v>3789.566210532928</v>
+        <v>514.2429105231784</v>
       </c>
       <c r="Y40" t="n">
-        <v>3564.830511921693</v>
+        <v>289.507211911943</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1675.344626790848</v>
+        <v>1317.925550469149</v>
       </c>
       <c r="C41" t="n">
-        <v>1265.220036104118</v>
+        <v>907.8009597824195</v>
       </c>
       <c r="D41" t="n">
-        <v>860.7561061971787</v>
+        <v>907.8009597824195</v>
       </c>
       <c r="E41" t="n">
-        <v>860.7561061971787</v>
+        <v>493.4607442993162</v>
       </c>
       <c r="F41" t="n">
-        <v>860.7561061971787</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="G41" t="n">
-        <v>452.3825407086769</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="H41" t="n">
-        <v>145.1068053898084</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="I41" t="n">
-        <v>72.43033225300364</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="J41" t="n">
-        <v>356.1229877244799</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="K41" t="n">
-        <v>938.5061087067245</v>
+        <v>654.8134532352483</v>
       </c>
       <c r="L41" t="n">
-        <v>1705.960819491641</v>
+        <v>654.8134532352483</v>
       </c>
       <c r="M41" t="n">
-        <v>1705.960819491641</v>
+        <v>1492.178048712412</v>
       </c>
       <c r="N41" t="n">
-        <v>1919.058734287184</v>
+        <v>2307.392858010646</v>
       </c>
       <c r="O41" t="n">
-        <v>2621.266342041506</v>
+        <v>3009.600465764968</v>
       </c>
       <c r="P41" t="n">
-        <v>3200.416942005933</v>
+        <v>3588.751065729395</v>
       </c>
       <c r="Q41" t="n">
-        <v>3559.12128719009</v>
+        <v>3621.516612650185</v>
       </c>
       <c r="R41" t="n">
-        <v>3621.516612650182</v>
+        <v>3621.516612650185</v>
       </c>
       <c r="S41" t="n">
-        <v>3621.516612650182</v>
+        <v>3621.516612650185</v>
       </c>
       <c r="T41" t="n">
-        <v>3400.862909350251</v>
+        <v>3400.862909350255</v>
       </c>
       <c r="U41" t="n">
-        <v>3400.862909350251</v>
+        <v>3263.324656544947</v>
       </c>
       <c r="V41" t="n">
-        <v>3270.906178203126</v>
+        <v>2913.487101881428</v>
       </c>
       <c r="W41" t="n">
-        <v>2887.145877338295</v>
+        <v>2529.726801016596</v>
       </c>
       <c r="X41" t="n">
-        <v>2486.502479507247</v>
+        <v>2129.083403185549</v>
       </c>
       <c r="Y41" t="n">
-        <v>2085.565806455337</v>
+        <v>1728.146730133639</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>371.3188770650925</v>
       </c>
       <c r="F42" t="n">
-        <v>262.358997247597</v>
+        <v>262.3589972475971</v>
       </c>
       <c r="G42" t="n">
         <v>155.5586757549324</v>
       </c>
       <c r="H42" t="n">
-        <v>86.64444615458966</v>
+        <v>86.64444615458974</v>
       </c>
       <c r="I42" t="n">
-        <v>72.43033225300364</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="J42" t="n">
-        <v>72.43033225300364</v>
+        <v>282.8174664638065</v>
       </c>
       <c r="K42" t="n">
-        <v>72.43033225300364</v>
+        <v>768.6609607104272</v>
       </c>
       <c r="L42" t="n">
-        <v>72.43033225300364</v>
+        <v>768.6609607104272</v>
       </c>
       <c r="M42" t="n">
-        <v>760.6183995216288</v>
+        <v>768.6609607104272</v>
       </c>
       <c r="N42" t="n">
-        <v>760.6183995216288</v>
+        <v>768.6609607104272</v>
       </c>
       <c r="O42" t="n">
-        <v>1508.833035461574</v>
+        <v>1094.135276390597</v>
       </c>
       <c r="P42" t="n">
-        <v>2106.059509942955</v>
+        <v>1691.361750871978</v>
       </c>
       <c r="Q42" t="n">
-        <v>2106.059509942955</v>
+        <v>2064.95078394036</v>
       </c>
       <c r="R42" t="n">
         <v>2106.059509942955</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3020.491414134362</v>
+        <v>567.649475257786</v>
       </c>
       <c r="C43" t="n">
-        <v>2849.398041696078</v>
+        <v>396.5561028195024</v>
       </c>
       <c r="D43" t="n">
-        <v>2689.903397018988</v>
+        <v>237.0614581424124</v>
       </c>
       <c r="E43" t="n">
-        <v>2528.992581887308</v>
+        <v>237.0614581424124</v>
       </c>
       <c r="F43" t="n">
-        <v>2364.361455997899</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="G43" t="n">
-        <v>2197.270179484151</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="H43" t="n">
-        <v>2049.077397383911</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="I43" t="n">
-        <v>1937.516360277559</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="J43" t="n">
-        <v>1962.624446075998</v>
+        <v>97.53841805144248</v>
       </c>
       <c r="K43" t="n">
-        <v>2135.295117003258</v>
+        <v>270.2090889787025</v>
       </c>
       <c r="L43" t="n">
-        <v>2418.377458658509</v>
+        <v>553.2914306339534</v>
       </c>
       <c r="M43" t="n">
-        <v>2732.087101318423</v>
+        <v>867.0010732938673</v>
       </c>
       <c r="N43" t="n">
-        <v>3036.790208530368</v>
+        <v>1171.704180505812</v>
       </c>
       <c r="O43" t="n">
-        <v>3318.393385378883</v>
+        <v>1453.307357354327</v>
       </c>
       <c r="P43" t="n">
-        <v>3542.930049259138</v>
+        <v>1677.844021234583</v>
       </c>
       <c r="Q43" t="n">
-        <v>3621.516612650182</v>
+        <v>1756.430584625627</v>
       </c>
       <c r="R43" t="n">
-        <v>3621.516612650182</v>
+        <v>1681.642265930194</v>
       </c>
       <c r="S43" t="n">
-        <v>3621.516612650182</v>
+        <v>1498.02343065446</v>
       </c>
       <c r="T43" t="n">
-        <v>3621.516612650182</v>
+        <v>1259.154544754191</v>
       </c>
       <c r="U43" t="n">
-        <v>3621.516612650182</v>
+        <v>1259.154544754191</v>
       </c>
       <c r="V43" t="n">
-        <v>3621.516612650182</v>
+        <v>1259.154544754191</v>
       </c>
       <c r="W43" t="n">
-        <v>3621.516612650182</v>
+        <v>980.0848802630657</v>
       </c>
       <c r="X43" t="n">
-        <v>3432.926819139641</v>
+        <v>980.0848802630657</v>
       </c>
       <c r="Y43" t="n">
-        <v>3208.191120528406</v>
+        <v>755.3491816518303</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1839.224104139285</v>
+        <v>1692.530865471392</v>
       </c>
       <c r="C44" t="n">
-        <v>1429.099513452555</v>
+        <v>1692.530865471392</v>
       </c>
       <c r="D44" t="n">
-        <v>1429.099513452555</v>
+        <v>1623.45026058979</v>
       </c>
       <c r="E44" t="n">
-        <v>1014.759297969452</v>
+        <v>1209.110045106687</v>
       </c>
       <c r="F44" t="n">
-        <v>593.7288859231394</v>
+        <v>788.0796330603741</v>
       </c>
       <c r="G44" t="n">
-        <v>185.3553204346376</v>
+        <v>379.7060675718723</v>
       </c>
       <c r="H44" t="n">
-        <v>72.43033225300364</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="I44" t="n">
-        <v>72.43033225300364</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="J44" t="n">
-        <v>72.43033225300364</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="K44" t="n">
-        <v>499.2748893355465</v>
+        <v>499.2748893355497</v>
       </c>
       <c r="L44" t="n">
-        <v>1266.729600120463</v>
+        <v>1266.729600120466</v>
       </c>
       <c r="M44" t="n">
-        <v>2104.094195597626</v>
+        <v>2104.09419559763</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.309004895861</v>
+        <v>2919.309004895864</v>
       </c>
       <c r="O44" t="n">
-        <v>3621.516612650182</v>
+        <v>3621.516612650185</v>
       </c>
       <c r="P44" t="n">
-        <v>3621.516612650182</v>
+        <v>3621.516612650185</v>
       </c>
       <c r="Q44" t="n">
-        <v>3621.516612650182</v>
+        <v>3621.516612650185</v>
       </c>
       <c r="R44" t="n">
-        <v>3621.516612650182</v>
+        <v>3621.516612650185</v>
       </c>
       <c r="S44" t="n">
-        <v>3621.516612650182</v>
+        <v>3494.318687967138</v>
       </c>
       <c r="T44" t="n">
-        <v>3400.862909350251</v>
+        <v>3494.318687967138</v>
       </c>
       <c r="U44" t="n">
-        <v>3400.862909350251</v>
+        <v>3237.286573716142</v>
       </c>
       <c r="V44" t="n">
-        <v>3051.025354686732</v>
+        <v>2887.449019052623</v>
       </c>
       <c r="W44" t="n">
-        <v>3051.025354686732</v>
+        <v>2503.688718187791</v>
       </c>
       <c r="X44" t="n">
-        <v>2650.381956855685</v>
+        <v>2503.688718187791</v>
       </c>
       <c r="Y44" t="n">
-        <v>2249.445283803775</v>
+        <v>2102.752045135881</v>
       </c>
     </row>
     <row r="45">
@@ -7715,40 +7715,40 @@
         <v>371.3188770650925</v>
       </c>
       <c r="F45" t="n">
-        <v>262.358997247597</v>
+        <v>262.3589972475971</v>
       </c>
       <c r="G45" t="n">
         <v>155.5586757549324</v>
       </c>
       <c r="H45" t="n">
-        <v>86.64444615458966</v>
+        <v>86.64444615458974</v>
       </c>
       <c r="I45" t="n">
-        <v>72.43033225300364</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="J45" t="n">
-        <v>134.6681700330773</v>
+        <v>282.8174664638065</v>
       </c>
       <c r="K45" t="n">
-        <v>134.6681700330773</v>
+        <v>768.6609607104272</v>
       </c>
       <c r="L45" t="n">
-        <v>836.1451152436534</v>
+        <v>1094.135276390597</v>
       </c>
       <c r="M45" t="n">
-        <v>836.1451152436534</v>
+        <v>1094.135276390597</v>
       </c>
       <c r="N45" t="n">
-        <v>1732.470476874573</v>
+        <v>1094.135276390597</v>
       </c>
       <c r="O45" t="n">
-        <v>1732.470476874573</v>
+        <v>1094.135276390597</v>
       </c>
       <c r="P45" t="n">
-        <v>1732.470476874573</v>
+        <v>1691.361750871978</v>
       </c>
       <c r="Q45" t="n">
-        <v>2106.059509942955</v>
+        <v>2064.95078394036</v>
       </c>
       <c r="R45" t="n">
         <v>2106.059509942955</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3020.491414134362</v>
+        <v>984.3120136715224</v>
       </c>
       <c r="C46" t="n">
-        <v>2849.398041696078</v>
+        <v>984.3120136715224</v>
       </c>
       <c r="D46" t="n">
-        <v>2689.903397018988</v>
+        <v>824.8173689944324</v>
       </c>
       <c r="E46" t="n">
-        <v>2528.992581887308</v>
+        <v>663.9065538627519</v>
       </c>
       <c r="F46" t="n">
-        <v>2364.361455997899</v>
+        <v>499.2754279733431</v>
       </c>
       <c r="G46" t="n">
-        <v>2197.270179484151</v>
+        <v>332.1841514595956</v>
       </c>
       <c r="H46" t="n">
-        <v>2049.077397383911</v>
+        <v>183.9913693593559</v>
       </c>
       <c r="I46" t="n">
-        <v>1937.516360277559</v>
+        <v>72.43033225300371</v>
       </c>
       <c r="J46" t="n">
-        <v>1962.624446075998</v>
+        <v>97.53841805144248</v>
       </c>
       <c r="K46" t="n">
-        <v>2135.295117003258</v>
+        <v>270.2090889787025</v>
       </c>
       <c r="L46" t="n">
-        <v>2418.377458658509</v>
+        <v>553.2914306339534</v>
       </c>
       <c r="M46" t="n">
-        <v>2732.087101318423</v>
+        <v>867.0010732938673</v>
       </c>
       <c r="N46" t="n">
-        <v>3036.790208530368</v>
+        <v>1171.704180505812</v>
       </c>
       <c r="O46" t="n">
-        <v>3318.393385378883</v>
+        <v>1453.307357354327</v>
       </c>
       <c r="P46" t="n">
-        <v>3542.930049259138</v>
+        <v>1677.844021234583</v>
       </c>
       <c r="Q46" t="n">
-        <v>3621.516612650182</v>
+        <v>1756.430584625627</v>
       </c>
       <c r="R46" t="n">
-        <v>3621.516612650182</v>
+        <v>1756.430584625627</v>
       </c>
       <c r="S46" t="n">
-        <v>3437.897777374449</v>
+        <v>1572.811749349893</v>
       </c>
       <c r="T46" t="n">
-        <v>3437.897777374449</v>
+        <v>1572.811749349893</v>
       </c>
       <c r="U46" t="n">
-        <v>3432.926819139641</v>
+        <v>1572.811749349893</v>
       </c>
       <c r="V46" t="n">
-        <v>3432.926819139641</v>
+        <v>1572.811749349893</v>
       </c>
       <c r="W46" t="n">
-        <v>3432.926819139641</v>
+        <v>1572.811749349893</v>
       </c>
       <c r="X46" t="n">
-        <v>3432.926819139641</v>
+        <v>1396.747418676802</v>
       </c>
       <c r="Y46" t="n">
-        <v>3208.191120528406</v>
+        <v>1172.011720065567</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M2" t="n">
-        <v>494.1995199774884</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
@@ -7996,7 +7996,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8069,13 +8069,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>564.4415429491208</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>208.9223179663055</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8239,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491207</v>
       </c>
       <c r="P6" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N8" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P9" t="n">
-        <v>201.8514806265826</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>393.8300907364563</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8707,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>220.1189748247492</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8780,19 +8780,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>754.1156070065517</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>713.8858861212705</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>183.7334330355879</v>
+        <v>461.4821466228603</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8944,7 +8944,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>418.55208783606</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>571.1716873458279</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>33.61744420588938</v>
+        <v>33.61744420588943</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>25.48513835903769</v>
       </c>
       <c r="L18" t="n">
-        <v>219.7062407105624</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>9.956411601479907</v>
+        <v>752.3056621045046</v>
       </c>
       <c r="N18" t="n">
-        <v>4.325482542992532</v>
+        <v>4.325482542992688</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>13.04688769287793</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.70820599534539</v>
+        <v>32.70820599534547</v>
       </c>
       <c r="R18" t="n">
-        <v>47.33433381251138</v>
+        <v>47.33433381251142</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389132</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>33.61744420588938</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>344.0797181430538</v>
       </c>
       <c r="M21" t="n">
-        <v>9.956411601479907</v>
+        <v>9.956411601480021</v>
       </c>
       <c r="N21" t="n">
-        <v>4.325482542992532</v>
+        <v>4.325482542992653</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P21" t="n">
-        <v>117.4652110633674</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.70820599534539</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>47.33433381251138</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>33.61744420588938</v>
       </c>
       <c r="K24" t="n">
-        <v>25.4851383590376</v>
+        <v>25.48513835903762</v>
       </c>
       <c r="L24" t="n">
-        <v>15.31778311257845</v>
+        <v>15.31778311257848</v>
       </c>
       <c r="M24" t="n">
-        <v>377.004106446064</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>236.76706923424</v>
       </c>
       <c r="P24" t="n">
-        <v>18.38025925244914</v>
+        <v>18.38025925244916</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.70820599534539</v>
+        <v>32.7082059953454</v>
       </c>
       <c r="R24" t="n">
-        <v>47.33433381251138</v>
+        <v>47.33433381251139</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>33.61744420588938</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>25.4851383590376</v>
+        <v>259.4813243776614</v>
       </c>
       <c r="L27" t="n">
-        <v>15.31778311257845</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0041064460639</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992567</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>13.04688769287782</v>
       </c>
       <c r="P27" t="n">
-        <v>18.38025925244914</v>
+        <v>18.38025925244916</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.70820599534539</v>
+        <v>32.7082059953454</v>
       </c>
       <c r="R27" t="n">
-        <v>47.33433381251138</v>
+        <v>47.33433381251139</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>33.61744420588938</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>25.4851383590376</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>15.31778311257845</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>705.0958734889798</v>
+        <v>9.956411601479935</v>
       </c>
       <c r="N30" t="n">
-        <v>4.325482542992532</v>
+        <v>4.325482542992567</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>13.04688769287782</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.70820599534539</v>
+        <v>71.79419543026523</v>
       </c>
       <c r="R30" t="n">
-        <v>47.33433381251138</v>
+        <v>47.33433381251139</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>33.61744420588938</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>25.4851383590376</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>15.31778311257848</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601479935</v>
       </c>
       <c r="N33" t="n">
-        <v>450.8339253402048</v>
+        <v>4.325482542992567</v>
       </c>
       <c r="O33" t="n">
-        <v>13.04688769287779</v>
+        <v>341.8088227233522</v>
       </c>
       <c r="P33" t="n">
-        <v>18.38025925244914</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.70820599534539</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>47.33433381251138</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>33.61744420588938</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>25.4851383590376</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>15.31778311257845</v>
+        <v>385.6036838022399</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601479935</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992567</v>
       </c>
       <c r="O36" t="n">
-        <v>236.76706923424</v>
+        <v>13.04688769287782</v>
       </c>
       <c r="P36" t="n">
-        <v>18.38025925244914</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.70820599534539</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>47.33433381251138</v>
+        <v>47.33433381251139</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158876</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>33.61744420588938</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>25.4851383590376</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>15.31778311257845</v>
+        <v>344.079718143053</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O39" t="n">
-        <v>236.76706923424</v>
+        <v>13.04688769287783</v>
       </c>
       <c r="P39" t="n">
-        <v>18.38025925244914</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.70820599534539</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>47.33433381251138</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>43.51835496591208</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>40.06791223185677</v>
       </c>
       <c r="M41" t="n">
-        <v>31.62759366370237</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>245.5023131161416</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11080,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>85.20775241119784</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>65.25287031924134</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>33.61744420588938</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>25.4851383590376</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>15.31778311257845</v>
+        <v>15.3177831125785</v>
       </c>
       <c r="M42" t="n">
-        <v>705.0958734889801</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N42" t="n">
-        <v>4.325482542992532</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>341.8088227233524</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.70820599534539</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>47.33433381251138</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>43.51835496591205</v>
+        <v>43.51835496591208</v>
       </c>
       <c r="K44" t="n">
-        <v>475.6221848341643</v>
+        <v>475.6221848341675</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11314,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>43.15047232606022</v>
+        <v>43.15047232606027</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.11124036999554</v>
+        <v>52.11124036999557</v>
       </c>
       <c r="R44" t="n">
-        <v>65.25287031924131</v>
+        <v>65.25287031924134</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>96.48394701404462</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>25.4851383590376</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>344.0797181430531</v>
       </c>
       <c r="M45" t="n">
-        <v>9.956411601479907</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N45" t="n">
-        <v>909.7046357055381</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O45" t="n">
-        <v>13.04688769287779</v>
+        <v>13.04688769287783</v>
       </c>
       <c r="P45" t="n">
-        <v>18.38025925244914</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>47.33433381251138</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>4.575987001575299</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>359.799827498043</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>84.01475920548603</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23427,10 +23427,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>105.2999603833863</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>261.5534393718308</v>
       </c>
       <c r="E14" t="n">
-        <v>378.3269698721595</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>30.6372908180782</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>62.37314297036312</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>127.8187158533189</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.7108542792373</v>
+        <v>130.6217273183802</v>
       </c>
       <c r="I19" t="n">
         <v>110.4454267352886</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.33716558595374</v>
+        <v>77.33716558595377</v>
       </c>
       <c r="S19" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T19" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.65493488891563</v>
+        <v>40.97885091565576</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24144,10 +24144,10 @@
         <v>165.4203637486101</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.33716558595374</v>
+        <v>77.33716558595377</v>
       </c>
       <c r="S22" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T22" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9168946853473</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.4203637486101</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4454267352886</v>
+        <v>2.233039204647923</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.33716558595374</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>45.32490893601488</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.961818629494644</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>59.20707213169726</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.33716558595374</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S31" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.4801970412658</v>
@@ -24897,10 +24897,10 @@
         <v>279.9615737930588</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.37921477516963</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>91.79501415186908</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>139.3014563369041</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H34" t="n">
         <v>146.7108542792373</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.33716558595374</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T34" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.1915210982295</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.4454267352886</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T37" t="n">
         <v>236.4801970412658</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>51.22005943788193</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>1.028764714930531</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>40.97885091565584</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.2898298336167</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.2029779656798</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4617931084866</v>
+        <v>118.2989228312323</v>
       </c>
       <c r="V41" t="n">
-        <v>217.6820152812303</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>77.33716558595374</v>
+        <v>3.296730077474678</v>
       </c>
       <c r="S43" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9615737930588</v>
@@ -25848,10 +25848,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>49.25652794347801</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>332.0294917750844</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>192.4072396658623</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.94970840543667</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>125.9259454362165</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.4471662669313</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4617931084866</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.33716558595374</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>236.4801970412658</v>
       </c>
       <c r="U46" t="n">
-        <v>275.0403251405996</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26088,7 +26088,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>61.65673615255332</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612819.7816829662</v>
+        <v>612819.7816829664</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612819.781682966</v>
+        <v>612819.7816829663</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>749210.8605274077</v>
+        <v>749210.8605274076</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>749210.8605274075</v>
+        <v>749210.8605274076</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>749210.8605274075</v>
+        <v>749210.8605274076</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>749210.8605274075</v>
+        <v>749210.8605274077</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>749210.8605274075</v>
+        <v>749210.8605274077</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609790.0131313843</v>
+        <v>609790.0131313844</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609790.0131313843</v>
+        <v>609790.0131313846</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472358.9397941251</v>
+      </c>
+      <c r="C2" t="n">
         <v>472358.9397941252</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472358.939794125</v>
       </c>
       <c r="D2" t="n">
         <v>472358.9397941253</v>
@@ -26325,28 +26325,28 @@
         <v>361723.2995415494</v>
       </c>
       <c r="F2" t="n">
-        <v>361723.2995415493</v>
+        <v>361723.2995415495</v>
       </c>
       <c r="G2" t="n">
-        <v>448481.8947728001</v>
+        <v>448481.8947728002</v>
       </c>
       <c r="H2" t="n">
+        <v>448481.8947728</v>
+      </c>
+      <c r="I2" t="n">
+        <v>448481.8947728</v>
+      </c>
+      <c r="J2" t="n">
+        <v>448481.8947727997</v>
+      </c>
+      <c r="K2" t="n">
+        <v>448481.8947728004</v>
+      </c>
+      <c r="L2" t="n">
         <v>448481.8947728003</v>
       </c>
-      <c r="I2" t="n">
-        <v>448481.8947728001</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>448481.8947728002</v>
-      </c>
-      <c r="K2" t="n">
-        <v>448481.8947728003</v>
-      </c>
-      <c r="L2" t="n">
-        <v>448481.8947728001</v>
-      </c>
-      <c r="M2" t="n">
-        <v>448481.8947728001</v>
       </c>
       <c r="N2" t="n">
         <v>448481.8947728002</v>
@@ -26355,7 +26355,7 @@
         <v>366240.1427539301</v>
       </c>
       <c r="P2" t="n">
-        <v>366240.1427539301</v>
+        <v>366240.1427539302</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>114449.600079025</v>
+        <v>114449.6000790252</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>168564.5485304761</v>
+        <v>168564.5485304756</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058951</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>95523.77649422704</v>
+        <v>95523.77649422731</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>232373.271303389</v>
       </c>
       <c r="C4" t="n">
-        <v>232373.271303389</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="D4" t="n">
-        <v>232373.271303389</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="E4" t="n">
         <v>102033.0026820576</v>
@@ -26456,10 +26456,10 @@
         <v>115943.7838242577</v>
       </c>
       <c r="O4" t="n">
-        <v>92622.14805619419</v>
+        <v>92622.14805619424</v>
       </c>
       <c r="P4" t="n">
-        <v>92622.14805619422</v>
+        <v>92622.14805619427</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>55047.05251228277</v>
+        <v>55047.0525122828</v>
       </c>
       <c r="F5" t="n">
-        <v>55047.05251228277</v>
+        <v>55047.0525122828</v>
       </c>
       <c r="G5" t="n">
-        <v>79278.01907908046</v>
+        <v>79278.01907908043</v>
       </c>
       <c r="H5" t="n">
-        <v>79278.01907908046</v>
+        <v>79278.01907908043</v>
       </c>
       <c r="I5" t="n">
         <v>79278.01907908046</v>
       </c>
       <c r="J5" t="n">
-        <v>79278.01907908049</v>
+        <v>79278.01907908046</v>
       </c>
       <c r="K5" t="n">
         <v>79278.01907908046</v>
       </c>
       <c r="L5" t="n">
-        <v>79278.01907908049</v>
+        <v>79278.01907908048</v>
       </c>
       <c r="M5" t="n">
-        <v>79278.01907908046</v>
+        <v>79278.01907908048</v>
       </c>
       <c r="N5" t="n">
         <v>79278.01907908046</v>
       </c>
       <c r="O5" t="n">
-        <v>56951.36739776027</v>
+        <v>56951.36739776032</v>
       </c>
       <c r="P5" t="n">
-        <v>56951.36739776027</v>
+        <v>56951.36739776032</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-338.9064808755429</v>
       </c>
       <c r="C6" t="n">
-        <v>174616.6034122384</v>
+        <v>174616.6034122385</v>
       </c>
       <c r="D6" t="n">
-        <v>174616.6034122387</v>
+        <v>174616.6034122386</v>
       </c>
       <c r="E6" t="n">
-        <v>90193.644268184</v>
+        <v>89812.14206041624</v>
       </c>
       <c r="F6" t="n">
-        <v>204643.244347209</v>
+        <v>204261.7421394416</v>
       </c>
       <c r="G6" t="n">
-        <v>84695.54333898588</v>
+        <v>84613.20870098178</v>
       </c>
       <c r="H6" t="n">
-        <v>253260.0918694621</v>
+        <v>253177.7572314572</v>
       </c>
       <c r="I6" t="n">
-        <v>253260.0918694619</v>
+        <v>253177.7572314572</v>
       </c>
       <c r="J6" t="n">
-        <v>116665.2910635669</v>
+        <v>116582.956425562</v>
       </c>
       <c r="K6" t="n">
-        <v>253260.0918694623</v>
+        <v>253177.7572314576</v>
       </c>
       <c r="L6" t="n">
-        <v>253260.0918694619</v>
+        <v>253177.7572314575</v>
       </c>
       <c r="M6" t="n">
-        <v>157736.3153752349</v>
+        <v>157653.9807372301</v>
       </c>
       <c r="N6" t="n">
-        <v>253260.091869462</v>
+        <v>253177.7572314574</v>
       </c>
       <c r="O6" t="n">
-        <v>216666.6272999757</v>
+        <v>216300.70041363</v>
       </c>
       <c r="P6" t="n">
-        <v>216666.6272999756</v>
+        <v>216300.7004136302</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924289</v>
       </c>
       <c r="H3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924295</v>
       </c>
       <c r="I3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924311</v>
       </c>
       <c r="J3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924311</v>
       </c>
       <c r="K3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924311</v>
       </c>
       <c r="L3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924311</v>
       </c>
       <c r="M3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924311</v>
       </c>
       <c r="N3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924308</v>
       </c>
       <c r="O3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924308</v>
       </c>
       <c r="P3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924308</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>905.3791531625455</v>
+        <v>905.3791531625461</v>
       </c>
       <c r="F4" t="n">
-        <v>905.3791531625455</v>
+        <v>905.3791531625461</v>
       </c>
       <c r="G4" t="n">
         <v>1272.593818973733</v>
@@ -26828,10 +26828,10 @@
         <v>1272.593818973733</v>
       </c>
       <c r="O4" t="n">
-        <v>905.3791531625455</v>
+        <v>905.3791531625463</v>
       </c>
       <c r="P4" t="n">
-        <v>905.3791531625455</v>
+        <v>905.3791531625463</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87.35389382924316</v>
+        <v>87.35389382924289</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>383.31558279252</v>
+        <v>383.3155827925206</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>367.2146658111873</v>
+        <v>367.2146658111865</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.063570370026</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.3155827925195</v>
+        <v>383.3155827925206</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.31558279252</v>
+        <v>383.3155827925206</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>367.2146658111873</v>
+        <v>367.2146658111865</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>234.9848782552363</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>214.1713931026577</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>56.03036892560202</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.754675275182478</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>234.5390377151283</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>23.50961408709232</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27675,13 +27675,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>141.3383715005807</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>19.15918132425824</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>237.6117313937374</v>
       </c>
       <c r="F8" t="n">
-        <v>206.5204902295179</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -28025,13 +28025,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>82.71990031427126</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>170.535215949722</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.3511714324793682</v>
       </c>
       <c r="H17" t="n">
-        <v>3.596434432879341</v>
+        <v>3.59643443287933</v>
       </c>
       <c r="I17" t="n">
-        <v>13.53853665066089</v>
+        <v>13.53853665066085</v>
       </c>
       <c r="J17" t="n">
-        <v>29.80523636739589</v>
+        <v>29.8052363673958</v>
       </c>
       <c r="K17" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424746</v>
       </c>
       <c r="L17" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098794</v>
       </c>
       <c r="M17" t="n">
-        <v>61.66263079334308</v>
+        <v>61.6626307933429</v>
       </c>
       <c r="N17" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587491</v>
       </c>
       <c r="O17" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415818</v>
       </c>
       <c r="P17" t="n">
-        <v>50.49889095482393</v>
+        <v>50.49889095482378</v>
       </c>
       <c r="Q17" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915639</v>
       </c>
       <c r="R17" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548213</v>
       </c>
       <c r="S17" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623609</v>
       </c>
       <c r="T17" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678435</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.02809371459834945</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666734</v>
       </c>
       <c r="H18" t="n">
-        <v>1.814653530301825</v>
+        <v>1.81465353030182</v>
       </c>
       <c r="I18" t="n">
-        <v>6.469132703392066</v>
+        <v>6.469132703392045</v>
       </c>
       <c r="J18" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411058</v>
       </c>
       <c r="K18" t="n">
-        <v>30.34064442557779</v>
+        <v>30.3406444255777</v>
       </c>
       <c r="L18" t="n">
-        <v>40.7967406982706</v>
+        <v>40.79674069827047</v>
       </c>
       <c r="M18" t="n">
-        <v>47.60787213693752</v>
+        <v>47.60787213693737</v>
       </c>
       <c r="N18" t="n">
-        <v>48.86791085075746</v>
+        <v>48.8679108507573</v>
       </c>
       <c r="O18" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712207</v>
       </c>
       <c r="P18" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035451</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949326</v>
       </c>
       <c r="R18" t="n">
-        <v>11.66586529289403</v>
+        <v>11.66586529289399</v>
       </c>
       <c r="S18" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479655</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.7573417776327753</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01236140007017592</v>
+        <v>0.01236140007017589</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019134</v>
       </c>
       <c r="H19" t="n">
-        <v>1.400526363360654</v>
+        <v>1.400526363360649</v>
       </c>
       <c r="I19" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428451</v>
       </c>
       <c r="J19" t="n">
-        <v>11.13690544770531</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K19" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274957</v>
       </c>
       <c r="L19" t="n">
-        <v>23.41943573251546</v>
+        <v>23.41943573251538</v>
       </c>
       <c r="M19" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274811</v>
       </c>
       <c r="N19" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373191</v>
       </c>
       <c r="O19" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913228</v>
       </c>
       <c r="P19" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105323</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.19043796821572</v>
+        <v>13.19043796821568</v>
       </c>
       <c r="R19" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400577</v>
       </c>
       <c r="S19" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912435</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.6730545917990843</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286194</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.3511714324793684</v>
       </c>
       <c r="H20" t="n">
-        <v>3.596434432879341</v>
+        <v>3.596434432879332</v>
       </c>
       <c r="I20" t="n">
-        <v>13.53853665066089</v>
+        <v>13.53853665066086</v>
       </c>
       <c r="J20" t="n">
-        <v>29.80523636739589</v>
+        <v>29.80523636739582</v>
       </c>
       <c r="K20" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424749</v>
       </c>
       <c r="L20" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098797</v>
       </c>
       <c r="M20" t="n">
-        <v>61.66263079334308</v>
+        <v>61.66263079334293</v>
       </c>
       <c r="N20" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587495</v>
       </c>
       <c r="O20" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415823</v>
       </c>
       <c r="P20" t="n">
-        <v>50.49889095482393</v>
+        <v>50.49889095482381</v>
       </c>
       <c r="Q20" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915642</v>
       </c>
       <c r="R20" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548214</v>
       </c>
       <c r="S20" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623615</v>
       </c>
       <c r="T20" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678436</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.02809371459834947</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666735</v>
       </c>
       <c r="H21" t="n">
-        <v>1.814653530301825</v>
+        <v>1.814653530301821</v>
       </c>
       <c r="I21" t="n">
-        <v>6.469132703392066</v>
+        <v>6.46913270339205</v>
       </c>
       <c r="J21" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411059</v>
       </c>
       <c r="K21" t="n">
-        <v>30.34064442557779</v>
+        <v>30.34064442557771</v>
       </c>
       <c r="L21" t="n">
-        <v>40.7967406982706</v>
+        <v>40.7967406982705</v>
       </c>
       <c r="M21" t="n">
-        <v>47.60787213693752</v>
+        <v>47.6078721369374</v>
       </c>
       <c r="N21" t="n">
-        <v>48.86791085075746</v>
+        <v>48.86791085075734</v>
       </c>
       <c r="O21" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712209</v>
       </c>
       <c r="P21" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035453</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949327</v>
       </c>
       <c r="R21" t="n">
-        <v>11.66586529289403</v>
+        <v>11.665865292894</v>
       </c>
       <c r="S21" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479657</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.7573417776327759</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01236140007017592</v>
+        <v>0.01236140007017589</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019135</v>
       </c>
       <c r="H22" t="n">
-        <v>1.400526363360654</v>
+        <v>1.40052636336065</v>
       </c>
       <c r="I22" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428455</v>
       </c>
       <c r="J22" t="n">
-        <v>11.13690544770531</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K22" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274958</v>
       </c>
       <c r="L22" t="n">
-        <v>23.41943573251546</v>
+        <v>23.4194357325154</v>
       </c>
       <c r="M22" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274813</v>
       </c>
       <c r="N22" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373192</v>
       </c>
       <c r="O22" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913229</v>
       </c>
       <c r="P22" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105324</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.19043796821572</v>
+        <v>13.19043796821568</v>
       </c>
       <c r="R22" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400581</v>
       </c>
       <c r="S22" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912437</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.6730545917990848</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286201</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.351171432479369</v>
       </c>
       <c r="H23" t="n">
-        <v>3.596434432879341</v>
+        <v>3.596434432879339</v>
       </c>
       <c r="I23" t="n">
         <v>13.53853665066089</v>
       </c>
       <c r="J23" t="n">
-        <v>29.80523636739589</v>
+        <v>29.80523636739587</v>
       </c>
       <c r="K23" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424757</v>
       </c>
       <c r="L23" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098807</v>
       </c>
       <c r="M23" t="n">
-        <v>61.66263079334308</v>
+        <v>61.66263079334305</v>
       </c>
       <c r="N23" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587506</v>
       </c>
       <c r="O23" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415833</v>
       </c>
       <c r="P23" t="n">
-        <v>50.49889095482393</v>
+        <v>50.4988909548239</v>
       </c>
       <c r="Q23" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R23" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S23" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623629</v>
       </c>
       <c r="T23" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.02809371459834951</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H24" t="n">
-        <v>1.814653530301825</v>
+        <v>1.814653530301824</v>
       </c>
       <c r="I24" t="n">
-        <v>6.469132703392066</v>
+        <v>6.469132703392061</v>
       </c>
       <c r="J24" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K24" t="n">
-        <v>30.34064442557779</v>
+        <v>30.34064442557777</v>
       </c>
       <c r="L24" t="n">
-        <v>40.7967406982706</v>
+        <v>40.79674069827057</v>
       </c>
       <c r="M24" t="n">
-        <v>47.60787213693752</v>
+        <v>47.60787213693749</v>
       </c>
       <c r="N24" t="n">
-        <v>48.86791085075746</v>
+        <v>48.86791085075743</v>
       </c>
       <c r="O24" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712218</v>
       </c>
       <c r="P24" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035459</v>
       </c>
       <c r="Q24" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949332</v>
       </c>
       <c r="R24" t="n">
-        <v>11.66586529289403</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S24" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479663</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.7573417776327772</v>
       </c>
       <c r="U24" t="n">
         <v>0.01236140007017592</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019138</v>
       </c>
       <c r="H25" t="n">
-        <v>1.400526363360654</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I25" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428463</v>
       </c>
       <c r="J25" t="n">
-        <v>11.13690544770531</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K25" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L25" t="n">
-        <v>23.41943573251546</v>
+        <v>23.41943573251544</v>
       </c>
       <c r="M25" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274817</v>
       </c>
       <c r="N25" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373197</v>
       </c>
       <c r="O25" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913233</v>
       </c>
       <c r="P25" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.19043796821572</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R25" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400595</v>
       </c>
       <c r="S25" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912442</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.673054591799086</v>
       </c>
       <c r="U25" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286217</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.351171432479369</v>
       </c>
       <c r="H26" t="n">
-        <v>3.596434432879341</v>
+        <v>3.596434432879339</v>
       </c>
       <c r="I26" t="n">
         <v>13.53853665066089</v>
       </c>
       <c r="J26" t="n">
-        <v>29.80523636739589</v>
+        <v>29.80523636739587</v>
       </c>
       <c r="K26" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424757</v>
       </c>
       <c r="L26" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098807</v>
       </c>
       <c r="M26" t="n">
-        <v>61.66263079334308</v>
+        <v>61.66263079334305</v>
       </c>
       <c r="N26" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587506</v>
       </c>
       <c r="O26" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415833</v>
       </c>
       <c r="P26" t="n">
-        <v>50.49889095482393</v>
+        <v>50.4988909548239</v>
       </c>
       <c r="Q26" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R26" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S26" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623629</v>
       </c>
       <c r="T26" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.02809371459834951</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H27" t="n">
-        <v>1.814653530301825</v>
+        <v>1.814653530301824</v>
       </c>
       <c r="I27" t="n">
-        <v>6.469132703392066</v>
+        <v>6.469132703392061</v>
       </c>
       <c r="J27" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K27" t="n">
-        <v>30.34064442557779</v>
+        <v>30.34064442557777</v>
       </c>
       <c r="L27" t="n">
-        <v>40.7967406982706</v>
+        <v>40.79674069827057</v>
       </c>
       <c r="M27" t="n">
-        <v>47.60787213693752</v>
+        <v>47.60787213693749</v>
       </c>
       <c r="N27" t="n">
-        <v>48.86791085075746</v>
+        <v>48.86791085075743</v>
       </c>
       <c r="O27" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712218</v>
       </c>
       <c r="P27" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035459</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949332</v>
       </c>
       <c r="R27" t="n">
-        <v>11.66586529289403</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S27" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479663</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.7573417776327772</v>
       </c>
       <c r="U27" t="n">
         <v>0.01236140007017592</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019138</v>
       </c>
       <c r="H28" t="n">
-        <v>1.400526363360654</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I28" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428463</v>
       </c>
       <c r="J28" t="n">
-        <v>11.13690544770531</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K28" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L28" t="n">
-        <v>23.41943573251546</v>
+        <v>23.41943573251544</v>
       </c>
       <c r="M28" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274817</v>
       </c>
       <c r="N28" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373197</v>
       </c>
       <c r="O28" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913233</v>
       </c>
       <c r="P28" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.19043796821572</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R28" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400595</v>
       </c>
       <c r="S28" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912442</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.673054591799086</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286217</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.351171432479369</v>
       </c>
       <c r="H29" t="n">
-        <v>3.596434432879341</v>
+        <v>3.596434432879339</v>
       </c>
       <c r="I29" t="n">
         <v>13.53853665066089</v>
       </c>
       <c r="J29" t="n">
-        <v>29.80523636739589</v>
+        <v>29.80523636739587</v>
       </c>
       <c r="K29" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424757</v>
       </c>
       <c r="L29" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098807</v>
       </c>
       <c r="M29" t="n">
-        <v>61.66263079334308</v>
+        <v>61.66263079334305</v>
       </c>
       <c r="N29" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587506</v>
       </c>
       <c r="O29" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415833</v>
       </c>
       <c r="P29" t="n">
-        <v>50.49889095482393</v>
+        <v>50.4988909548239</v>
       </c>
       <c r="Q29" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R29" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S29" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623629</v>
       </c>
       <c r="T29" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.02809371459834951</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H30" t="n">
-        <v>1.814653530301825</v>
+        <v>1.814653530301824</v>
       </c>
       <c r="I30" t="n">
-        <v>6.469132703392066</v>
+        <v>6.469132703392061</v>
       </c>
       <c r="J30" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K30" t="n">
-        <v>30.34064442557779</v>
+        <v>30.34064442557777</v>
       </c>
       <c r="L30" t="n">
-        <v>40.7967406982706</v>
+        <v>40.79674069827057</v>
       </c>
       <c r="M30" t="n">
-        <v>47.60787213693752</v>
+        <v>47.60787213693749</v>
       </c>
       <c r="N30" t="n">
-        <v>48.86791085075746</v>
+        <v>48.86791085075743</v>
       </c>
       <c r="O30" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712218</v>
       </c>
       <c r="P30" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035459</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949332</v>
       </c>
       <c r="R30" t="n">
-        <v>11.66586529289403</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S30" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479663</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.7573417776327772</v>
       </c>
       <c r="U30" t="n">
         <v>0.01236140007017592</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019138</v>
       </c>
       <c r="H31" t="n">
-        <v>1.400526363360654</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I31" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428463</v>
       </c>
       <c r="J31" t="n">
-        <v>11.13690544770531</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K31" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L31" t="n">
-        <v>23.41943573251546</v>
+        <v>23.41943573251544</v>
       </c>
       <c r="M31" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274817</v>
       </c>
       <c r="N31" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373197</v>
       </c>
       <c r="O31" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913233</v>
       </c>
       <c r="P31" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.19043796821572</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R31" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400595</v>
       </c>
       <c r="S31" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912442</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.673054591799086</v>
       </c>
       <c r="U31" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286217</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.351171432479369</v>
       </c>
       <c r="H32" t="n">
-        <v>3.596434432879341</v>
+        <v>3.596434432879339</v>
       </c>
       <c r="I32" t="n">
         <v>13.53853665066089</v>
       </c>
       <c r="J32" t="n">
-        <v>29.80523636739589</v>
+        <v>29.80523636739587</v>
       </c>
       <c r="K32" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424757</v>
       </c>
       <c r="L32" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098807</v>
       </c>
       <c r="M32" t="n">
-        <v>61.66263079334308</v>
+        <v>61.66263079334305</v>
       </c>
       <c r="N32" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587506</v>
       </c>
       <c r="O32" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415833</v>
       </c>
       <c r="P32" t="n">
-        <v>50.49889095482393</v>
+        <v>50.4988909548239</v>
       </c>
       <c r="Q32" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R32" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S32" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623629</v>
       </c>
       <c r="T32" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.02809371459834951</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H33" t="n">
-        <v>1.814653530301825</v>
+        <v>1.814653530301824</v>
       </c>
       <c r="I33" t="n">
-        <v>6.469132703392066</v>
+        <v>6.469132703392061</v>
       </c>
       <c r="J33" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K33" t="n">
-        <v>30.34064442557779</v>
+        <v>30.34064442557777</v>
       </c>
       <c r="L33" t="n">
-        <v>40.7967406982706</v>
+        <v>40.79674069827057</v>
       </c>
       <c r="M33" t="n">
-        <v>47.60787213693752</v>
+        <v>47.60787213693749</v>
       </c>
       <c r="N33" t="n">
-        <v>48.86791085075746</v>
+        <v>48.86791085075743</v>
       </c>
       <c r="O33" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712218</v>
       </c>
       <c r="P33" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035459</v>
       </c>
       <c r="Q33" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949332</v>
       </c>
       <c r="R33" t="n">
-        <v>11.66586529289403</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S33" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479663</v>
       </c>
       <c r="T33" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.7573417776327772</v>
       </c>
       <c r="U33" t="n">
         <v>0.01236140007017592</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019138</v>
       </c>
       <c r="H34" t="n">
-        <v>1.400526363360654</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I34" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428463</v>
       </c>
       <c r="J34" t="n">
-        <v>11.13690544770531</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K34" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L34" t="n">
-        <v>23.41943573251546</v>
+        <v>23.41943573251544</v>
       </c>
       <c r="M34" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274817</v>
       </c>
       <c r="N34" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373197</v>
       </c>
       <c r="O34" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913233</v>
       </c>
       <c r="P34" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.19043796821572</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R34" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400595</v>
       </c>
       <c r="S34" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912442</v>
       </c>
       <c r="T34" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.673054591799086</v>
       </c>
       <c r="U34" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286217</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.351171432479369</v>
       </c>
       <c r="H35" t="n">
-        <v>3.596434432879341</v>
+        <v>3.596434432879339</v>
       </c>
       <c r="I35" t="n">
         <v>13.53853665066089</v>
       </c>
       <c r="J35" t="n">
-        <v>29.80523636739589</v>
+        <v>29.80523636739587</v>
       </c>
       <c r="K35" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424757</v>
       </c>
       <c r="L35" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098807</v>
       </c>
       <c r="M35" t="n">
-        <v>61.66263079334308</v>
+        <v>61.66263079334305</v>
       </c>
       <c r="N35" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587506</v>
       </c>
       <c r="O35" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415833</v>
       </c>
       <c r="P35" t="n">
-        <v>50.49889095482393</v>
+        <v>50.4988909548239</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R35" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S35" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623629</v>
       </c>
       <c r="T35" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.02809371459834951</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H36" t="n">
-        <v>1.814653530301825</v>
+        <v>1.814653530301824</v>
       </c>
       <c r="I36" t="n">
-        <v>6.469132703392066</v>
+        <v>6.469132703392061</v>
       </c>
       <c r="J36" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K36" t="n">
-        <v>30.34064442557779</v>
+        <v>30.34064442557777</v>
       </c>
       <c r="L36" t="n">
-        <v>40.7967406982706</v>
+        <v>40.79674069827057</v>
       </c>
       <c r="M36" t="n">
-        <v>47.60787213693752</v>
+        <v>47.60787213693749</v>
       </c>
       <c r="N36" t="n">
-        <v>48.86791085075746</v>
+        <v>48.86791085075743</v>
       </c>
       <c r="O36" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712218</v>
       </c>
       <c r="P36" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035459</v>
       </c>
       <c r="Q36" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949332</v>
       </c>
       <c r="R36" t="n">
-        <v>11.66586529289403</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S36" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479663</v>
       </c>
       <c r="T36" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.7573417776327772</v>
       </c>
       <c r="U36" t="n">
         <v>0.01236140007017592</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019138</v>
       </c>
       <c r="H37" t="n">
-        <v>1.400526363360654</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I37" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428463</v>
       </c>
       <c r="J37" t="n">
-        <v>11.13690544770531</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K37" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L37" t="n">
-        <v>23.41943573251546</v>
+        <v>23.41943573251544</v>
       </c>
       <c r="M37" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274817</v>
       </c>
       <c r="N37" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373197</v>
       </c>
       <c r="O37" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913233</v>
       </c>
       <c r="P37" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.19043796821572</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R37" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400595</v>
       </c>
       <c r="S37" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912442</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.673054591799086</v>
       </c>
       <c r="U37" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286217</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.3511714324793689</v>
       </c>
       <c r="H38" t="n">
-        <v>3.596434432879341</v>
+        <v>3.596434432879338</v>
       </c>
       <c r="I38" t="n">
-        <v>13.53853665066089</v>
+        <v>13.53853665066088</v>
       </c>
       <c r="J38" t="n">
-        <v>29.80523636739589</v>
+        <v>29.80523636739586</v>
       </c>
       <c r="K38" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424756</v>
       </c>
       <c r="L38" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098806</v>
       </c>
       <c r="M38" t="n">
-        <v>61.66263079334308</v>
+        <v>61.66263079334303</v>
       </c>
       <c r="N38" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587504</v>
       </c>
       <c r="O38" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415831</v>
       </c>
       <c r="P38" t="n">
-        <v>50.49889095482393</v>
+        <v>50.49889095482389</v>
       </c>
       <c r="Q38" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R38" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S38" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623627</v>
       </c>
       <c r="T38" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678438</v>
       </c>
       <c r="U38" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.0280937145983495</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666738</v>
       </c>
       <c r="H39" t="n">
-        <v>1.814653530301825</v>
+        <v>1.814653530301823</v>
       </c>
       <c r="I39" t="n">
-        <v>6.469132703392066</v>
+        <v>6.469132703392059</v>
       </c>
       <c r="J39" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K39" t="n">
-        <v>30.34064442557779</v>
+        <v>30.34064442557776</v>
       </c>
       <c r="L39" t="n">
-        <v>40.7967406982706</v>
+        <v>40.79674069827055</v>
       </c>
       <c r="M39" t="n">
-        <v>47.60787213693752</v>
+        <v>47.60787213693747</v>
       </c>
       <c r="N39" t="n">
-        <v>48.86791085075746</v>
+        <v>48.86791085075741</v>
       </c>
       <c r="O39" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712216</v>
       </c>
       <c r="P39" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035458</v>
       </c>
       <c r="Q39" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949331</v>
       </c>
       <c r="R39" t="n">
-        <v>11.66586529289403</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S39" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479662</v>
       </c>
       <c r="T39" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.757341777632777</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01236140007017592</v>
+        <v>0.01236140007017591</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019137</v>
       </c>
       <c r="H40" t="n">
-        <v>1.400526363360654</v>
+        <v>1.400526363360652</v>
       </c>
       <c r="I40" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428462</v>
       </c>
       <c r="J40" t="n">
-        <v>11.13690544770531</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K40" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L40" t="n">
-        <v>23.41943573251546</v>
+        <v>23.41943573251543</v>
       </c>
       <c r="M40" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274816</v>
       </c>
       <c r="N40" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373196</v>
       </c>
       <c r="O40" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913232</v>
       </c>
       <c r="P40" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.19043796821572</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R40" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400592</v>
       </c>
       <c r="S40" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912441</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.6730545917990858</v>
       </c>
       <c r="U40" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286213</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.3511714324793689</v>
       </c>
       <c r="H41" t="n">
-        <v>3.596434432879341</v>
+        <v>3.596434432879338</v>
       </c>
       <c r="I41" t="n">
-        <v>13.53853665066089</v>
+        <v>13.53853665066088</v>
       </c>
       <c r="J41" t="n">
-        <v>29.80523636739589</v>
+        <v>29.80523636739586</v>
       </c>
       <c r="K41" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424756</v>
       </c>
       <c r="L41" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098806</v>
       </c>
       <c r="M41" t="n">
-        <v>61.66263079334308</v>
+        <v>61.66263079334303</v>
       </c>
       <c r="N41" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587504</v>
       </c>
       <c r="O41" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415831</v>
       </c>
       <c r="P41" t="n">
-        <v>50.49889095482393</v>
+        <v>50.49889095482389</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R41" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S41" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623627</v>
       </c>
       <c r="T41" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678438</v>
       </c>
       <c r="U41" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.0280937145983495</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666738</v>
       </c>
       <c r="H42" t="n">
-        <v>1.814653530301825</v>
+        <v>1.814653530301823</v>
       </c>
       <c r="I42" t="n">
-        <v>6.469132703392066</v>
+        <v>6.469132703392059</v>
       </c>
       <c r="J42" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K42" t="n">
-        <v>30.34064442557779</v>
+        <v>30.34064442557776</v>
       </c>
       <c r="L42" t="n">
-        <v>40.7967406982706</v>
+        <v>40.79674069827055</v>
       </c>
       <c r="M42" t="n">
-        <v>47.60787213693752</v>
+        <v>47.60787213693747</v>
       </c>
       <c r="N42" t="n">
-        <v>48.86791085075746</v>
+        <v>48.86791085075741</v>
       </c>
       <c r="O42" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712216</v>
       </c>
       <c r="P42" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035458</v>
       </c>
       <c r="Q42" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949331</v>
       </c>
       <c r="R42" t="n">
-        <v>11.66586529289403</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S42" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479662</v>
       </c>
       <c r="T42" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.757341777632777</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01236140007017592</v>
+        <v>0.01236140007017591</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019137</v>
       </c>
       <c r="H43" t="n">
-        <v>1.400526363360654</v>
+        <v>1.400526363360652</v>
       </c>
       <c r="I43" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428462</v>
       </c>
       <c r="J43" t="n">
-        <v>11.13690544770531</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K43" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L43" t="n">
-        <v>23.41943573251546</v>
+        <v>23.41943573251543</v>
       </c>
       <c r="M43" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274816</v>
       </c>
       <c r="N43" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373196</v>
       </c>
       <c r="O43" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913232</v>
       </c>
       <c r="P43" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.19043796821572</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R43" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400592</v>
       </c>
       <c r="S43" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912441</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.6730545917990858</v>
       </c>
       <c r="U43" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286213</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3511714324793692</v>
+        <v>0.3511714324793689</v>
       </c>
       <c r="H44" t="n">
-        <v>3.596434432879341</v>
+        <v>3.596434432879338</v>
       </c>
       <c r="I44" t="n">
-        <v>13.53853665066089</v>
+        <v>13.53853665066088</v>
       </c>
       <c r="J44" t="n">
-        <v>29.80523636739589</v>
+        <v>29.80523636739586</v>
       </c>
       <c r="K44" t="n">
-        <v>44.6703231042476</v>
+        <v>44.67032310424756</v>
       </c>
       <c r="L44" t="n">
-        <v>55.41748583098811</v>
+        <v>55.41748583098806</v>
       </c>
       <c r="M44" t="n">
-        <v>61.66263079334308</v>
+        <v>61.66263079334303</v>
       </c>
       <c r="N44" t="n">
-        <v>62.6603966258751</v>
+        <v>62.66039662587504</v>
       </c>
       <c r="O44" t="n">
-        <v>59.16843569415837</v>
+        <v>59.16843569415831</v>
       </c>
       <c r="P44" t="n">
-        <v>50.49889095482393</v>
+        <v>50.49889095482389</v>
       </c>
       <c r="Q44" t="n">
-        <v>37.92256402915651</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R44" t="n">
-        <v>22.0592724954822</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S44" t="n">
-        <v>8.002319017623634</v>
+        <v>8.002319017623627</v>
       </c>
       <c r="T44" t="n">
-        <v>1.53725294567844</v>
+        <v>1.537252945678438</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02809371459834953</v>
+        <v>0.0280937145983495</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.187893281066674</v>
+        <v>0.1878932810666738</v>
       </c>
       <c r="H45" t="n">
-        <v>1.814653530301825</v>
+        <v>1.814653530301823</v>
       </c>
       <c r="I45" t="n">
-        <v>6.469132703392066</v>
+        <v>6.469132703392059</v>
       </c>
       <c r="J45" t="n">
-        <v>17.75179459411063</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K45" t="n">
-        <v>30.34064442557779</v>
+        <v>30.34064442557776</v>
       </c>
       <c r="L45" t="n">
-        <v>40.7967406982706</v>
+        <v>40.79674069827055</v>
       </c>
       <c r="M45" t="n">
-        <v>47.60787213693752</v>
+        <v>47.60787213693747</v>
       </c>
       <c r="N45" t="n">
-        <v>48.86791085075746</v>
+        <v>48.86791085075741</v>
       </c>
       <c r="O45" t="n">
-        <v>44.70459130712221</v>
+        <v>44.70459130712216</v>
       </c>
       <c r="P45" t="n">
-        <v>35.87937575035461</v>
+        <v>35.87937575035458</v>
       </c>
       <c r="Q45" t="n">
-        <v>23.98441250949333</v>
+        <v>23.98441250949331</v>
       </c>
       <c r="R45" t="n">
-        <v>11.66586529289403</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S45" t="n">
-        <v>3.490035286479666</v>
+        <v>3.490035286479662</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7573417776327778</v>
+        <v>0.757341777632777</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01236140007017592</v>
+        <v>0.01236140007017591</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1575234151019139</v>
+        <v>0.1575234151019137</v>
       </c>
       <c r="H46" t="n">
-        <v>1.400526363360654</v>
+        <v>1.400526363360652</v>
       </c>
       <c r="I46" t="n">
-        <v>4.737158701428466</v>
+        <v>4.737158701428462</v>
       </c>
       <c r="J46" t="n">
-        <v>11.13690544770531</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K46" t="n">
-        <v>18.30135677274963</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L46" t="n">
-        <v>23.41943573251546</v>
+        <v>23.41943573251543</v>
       </c>
       <c r="M46" t="n">
-        <v>24.69251133274819</v>
+        <v>24.69251133274816</v>
       </c>
       <c r="N46" t="n">
-        <v>24.10537860373199</v>
+        <v>24.10537860373196</v>
       </c>
       <c r="O46" t="n">
-        <v>22.26521870913234</v>
+        <v>22.26521870913232</v>
       </c>
       <c r="P46" t="n">
-        <v>19.05174104105329</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.19043796821572</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R46" t="n">
-        <v>7.082825555400599</v>
+        <v>7.082825555400592</v>
       </c>
       <c r="S46" t="n">
-        <v>2.745203515912443</v>
+        <v>2.745203515912441</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6730545917990864</v>
+        <v>0.6730545917990858</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008592186278286222</v>
+        <v>0.008592186278286213</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>400.9092955204429</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>506.6900639491208</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>135.5987266329975</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="P6" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N8" t="n">
-        <v>500.9700927793177</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P9" t="n">
-        <v>147.5918456237788</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>304.6937010632392</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35427,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>126.469611543865</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>700.9222136128018</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>656.1344071212704</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>94.59704336237078</v>
+        <v>372.3457569496431</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35664,7 +35664,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>360.9878040976426</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>516.9120523430241</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>286.558237849976</v>
+        <v>286.5582378499759</v>
       </c>
       <c r="K17" t="n">
-        <v>588.2657787699441</v>
+        <v>588.2657787699439</v>
       </c>
       <c r="L17" t="n">
-        <v>775.2067785706224</v>
+        <v>775.2067785706223</v>
       </c>
       <c r="M17" t="n">
-        <v>845.8228237143067</v>
+        <v>845.8228237143065</v>
       </c>
       <c r="N17" t="n">
-        <v>823.4493023214488</v>
+        <v>823.4493023214486</v>
       </c>
       <c r="O17" t="n">
-        <v>709.3006138932542</v>
+        <v>709.3006138932541</v>
       </c>
       <c r="P17" t="n">
-        <v>585.000606024674</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q17" t="n">
-        <v>362.3276213981383</v>
+        <v>362.3276213981382</v>
       </c>
       <c r="R17" t="n">
-        <v>63.0255812728204</v>
+        <v>63.02558127282033</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>490.7510042895159</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>204.388457597984</v>
+        <v>708.5625709197737</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>742.3492505030246</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>755.7723595352983</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>603.2590651327082</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.36170282670584</v>
+        <v>25.3617028267058</v>
       </c>
       <c r="K19" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L19" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M19" t="n">
-        <v>316.8784269292061</v>
+        <v>316.8784269292059</v>
       </c>
       <c r="N19" t="n">
-        <v>307.780916375702</v>
+        <v>307.7809163757019</v>
       </c>
       <c r="O19" t="n">
-        <v>284.4476533823386</v>
+        <v>284.4476533823385</v>
       </c>
       <c r="P19" t="n">
-        <v>226.8047109901567</v>
+        <v>226.8047109901566</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166096</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>286.558237849976</v>
+        <v>286.5582378499759</v>
       </c>
       <c r="K20" t="n">
-        <v>588.2657787699437</v>
+        <v>588.2657787699439</v>
       </c>
       <c r="L20" t="n">
-        <v>775.2067785706224</v>
+        <v>775.2067785706223</v>
       </c>
       <c r="M20" t="n">
-        <v>845.8228237143067</v>
+        <v>845.8228237143065</v>
       </c>
       <c r="N20" t="n">
-        <v>823.4493023214488</v>
+        <v>823.4493023214486</v>
       </c>
       <c r="O20" t="n">
-        <v>709.3006138932542</v>
+        <v>709.3006138932541</v>
       </c>
       <c r="P20" t="n">
-        <v>585.000606024674</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q20" t="n">
         <v>362.3276213981383</v>
       </c>
       <c r="R20" t="n">
-        <v>63.0255812728204</v>
+        <v>63.02558127282035</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K21" t="n">
-        <v>490.7510042895159</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L21" t="n">
-        <v>708.5625709197739</v>
+        <v>328.7619350304753</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>755.7723595352983</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>99.0849518109183</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>41.52396565918682</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.36170282670584</v>
+        <v>25.36170282670581</v>
       </c>
       <c r="K22" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L22" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M22" t="n">
-        <v>316.8784269292061</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N22" t="n">
-        <v>307.780916375702</v>
+        <v>307.7809163757019</v>
       </c>
       <c r="O22" t="n">
-        <v>284.4476533823386</v>
+        <v>284.4476533823385</v>
       </c>
       <c r="P22" t="n">
         <v>226.8047109901567</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166098</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,19 +36369,19 @@
         <v>845.8228237143067</v>
       </c>
       <c r="N23" t="n">
-        <v>823.4493023214488</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O23" t="n">
         <v>709.3006138932542</v>
       </c>
       <c r="P23" t="n">
-        <v>585.000606024674</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q23" t="n">
         <v>362.3276213981383</v>
       </c>
       <c r="R23" t="n">
-        <v>63.0255812728204</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>367.0476948445841</v>
+        <v>899.09987283852</v>
       </c>
       <c r="N24" t="n">
         <v>931.350832175624</v>
       </c>
       <c r="O24" t="n">
-        <v>755.7723595352983</v>
+        <v>223.7201815413622</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.36170282670584</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K25" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L25" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M25" t="n">
-        <v>316.8784269292061</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N25" t="n">
         <v>307.780916375702</v>
@@ -36536,7 +36536,7 @@
         <v>226.8047109901567</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,19 +36606,19 @@
         <v>845.8228237143067</v>
       </c>
       <c r="N26" t="n">
-        <v>823.4493023214488</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O26" t="n">
         <v>709.3006138932542</v>
       </c>
       <c r="P26" t="n">
-        <v>585.000606024674</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q26" t="n">
         <v>362.3276213981383</v>
       </c>
       <c r="R26" t="n">
-        <v>63.0255812728204</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>212.5122567785887</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>233.9961860186238</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>708.5625709197739</v>
       </c>
       <c r="M27" t="n">
-        <v>367.047694844584</v>
+        <v>899.09987283852</v>
       </c>
       <c r="N27" t="n">
-        <v>931.350832175624</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>755.7723595352983</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.36170282670584</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K28" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L28" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M28" t="n">
-        <v>316.8784269292061</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N28" t="n">
         <v>307.780916375702</v>
@@ -36773,7 +36773,7 @@
         <v>226.8047109901567</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,19 +36843,19 @@
         <v>845.8228237143067</v>
       </c>
       <c r="N29" t="n">
-        <v>823.4493023214488</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O29" t="n">
         <v>709.3006138932542</v>
       </c>
       <c r="P29" t="n">
-        <v>585.000606024674</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q29" t="n">
         <v>362.3276213981383</v>
       </c>
       <c r="R29" t="n">
-        <v>63.0255812728204</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>212.5122567785887</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>708.5625709197739</v>
       </c>
       <c r="M30" t="n">
-        <v>695.1394618874999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>755.7723595352983</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>603.2590651327082</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>39.08598943491983</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>25.36170282670584</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K31" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L31" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M31" t="n">
-        <v>316.8784269292061</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N31" t="n">
-        <v>307.7809163756982</v>
+        <v>307.780916375702</v>
       </c>
       <c r="O31" t="n">
         <v>284.4476533823386</v>
@@ -37010,7 +37010,7 @@
         <v>226.8047109901567</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,19 +37080,19 @@
         <v>845.8228237143067</v>
       </c>
       <c r="N32" t="n">
-        <v>823.4493023214488</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O32" t="n">
         <v>709.3006138932542</v>
       </c>
       <c r="P32" t="n">
-        <v>585.000606024674</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q32" t="n">
         <v>362.3276213981383</v>
       </c>
       <c r="R32" t="n">
-        <v>63.0255812728204</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>212.5122567785887</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L33" t="n">
-        <v>708.5625709197739</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>899.09987283852</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>446.5084427972123</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>328.7619350304744</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>25.36170282670584</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K34" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L34" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M34" t="n">
-        <v>316.8784269292061</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N34" t="n">
-        <v>307.7809163756982</v>
+        <v>307.780916375702</v>
       </c>
       <c r="O34" t="n">
         <v>284.4476533823386</v>
@@ -37247,7 +37247,7 @@
         <v>226.8047109901567</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,19 +37317,19 @@
         <v>845.8228237143067</v>
       </c>
       <c r="N35" t="n">
-        <v>823.4493023214488</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O35" t="n">
         <v>709.3006138932542</v>
       </c>
       <c r="P35" t="n">
-        <v>585.000606024674</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q35" t="n">
         <v>362.3276213981383</v>
       </c>
       <c r="R35" t="n">
-        <v>63.0255812728204</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>212.5122567785887</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.2859006896614</v>
       </c>
       <c r="M36" t="n">
-        <v>899.09987283852</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>931.350832175624</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>223.7201815413622</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.36170282670584</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K37" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L37" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M37" t="n">
-        <v>316.8784269292061</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N37" t="n">
         <v>307.780916375702</v>
@@ -37484,7 +37484,7 @@
         <v>226.8047109901567</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>286.5582378499756</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K38" t="n">
         <v>588.2657787699441</v>
@@ -37554,19 +37554,19 @@
         <v>845.8228237143067</v>
       </c>
       <c r="N38" t="n">
-        <v>823.4493023214488</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O38" t="n">
         <v>709.3006138932542</v>
       </c>
       <c r="P38" t="n">
-        <v>585.000606024674</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q38" t="n">
         <v>362.3276213981383</v>
       </c>
       <c r="R38" t="n">
-        <v>63.0255812728204</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>328.7619350304745</v>
       </c>
       <c r="M39" t="n">
-        <v>899.09987283852</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>931.350832175624</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>223.7201815413622</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.36170282670584</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K40" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L40" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M40" t="n">
-        <v>316.8784269292061</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N40" t="n">
-        <v>307.780916375702</v>
+        <v>307.7809163757019</v>
       </c>
       <c r="O40" t="n">
-        <v>284.4476533823348</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P40" t="n">
         <v>226.8047109901567</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>286.558237849976</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>588.2657787699441</v>
       </c>
       <c r="L41" t="n">
-        <v>775.2067785706224</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N41" t="n">
-        <v>215.2504189853973</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O41" t="n">
         <v>709.3006138932542</v>
       </c>
       <c r="P41" t="n">
-        <v>585.000606024674</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q41" t="n">
-        <v>362.3276213981383</v>
+        <v>33.09651204120228</v>
       </c>
       <c r="R41" t="n">
-        <v>63.0255812728204</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>695.1394618875003</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>755.7723595352983</v>
+        <v>328.7619350304746</v>
       </c>
       <c r="P42" t="n">
         <v>603.2590651327082</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.36170282670584</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K43" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L43" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M43" t="n">
-        <v>316.8784269292061</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N43" t="n">
-        <v>307.780916375702</v>
+        <v>307.7809163757019</v>
       </c>
       <c r="O43" t="n">
         <v>284.4476533823386</v>
@@ -37958,7 +37958,7 @@
         <v>226.8047109901567</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>431.1561182651948</v>
+        <v>431.156118265198</v>
       </c>
       <c r="L44" t="n">
         <v>775.2067785706224</v>
@@ -38028,7 +38028,7 @@
         <v>845.8228237143067</v>
       </c>
       <c r="N44" t="n">
-        <v>823.4493023214488</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O44" t="n">
         <v>709.3006138932542</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.86650280815525</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L45" t="n">
-        <v>708.5625709197739</v>
+        <v>328.7619350304746</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>905.3791531625455</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q45" t="n">
         <v>377.3626596650321</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.36170282670584</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K46" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L46" t="n">
-        <v>285.9417592477282</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M46" t="n">
-        <v>316.8784269292061</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N46" t="n">
-        <v>307.780916375702</v>
+        <v>307.7809163757019</v>
       </c>
       <c r="O46" t="n">
         <v>284.4476533823386</v>
@@ -38195,7 +38195,7 @@
         <v>226.8047109901567</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.380367061661</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
